--- a/Science.xlsx
+++ b/Science.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="periodic_table" sheetId="3" r:id="rId1"/>
@@ -735,268 +735,269 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>melting_point</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boiling_point</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>69.3+0.41(G+C)</t>
+  </si>
+  <si>
+    <t>DNA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H2O=H{+}+OH{-}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pKa</t>
+  </si>
+  <si>
+    <t>H3AsO3</t>
+  </si>
+  <si>
+    <t>H3BO3</t>
+  </si>
+  <si>
+    <t>HBrO</t>
+  </si>
+  <si>
+    <t>HCNO</t>
+  </si>
+  <si>
+    <t>H2CO3</t>
+  </si>
+  <si>
+    <t>HClO</t>
+  </si>
+  <si>
+    <t>HClO2</t>
+  </si>
+  <si>
+    <t>H2CrO4</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>HIO</t>
+  </si>
+  <si>
+    <t>HIO3</t>
+  </si>
+  <si>
+    <t>HNO2</t>
+  </si>
+  <si>
+    <t>H2O2</t>
+  </si>
+  <si>
+    <t>HPO3</t>
+  </si>
+  <si>
+    <t>H3PO4</t>
+  </si>
+  <si>
+    <t>H4P2O7</t>
+  </si>
+  <si>
+    <t>H3PO3</t>
+  </si>
+  <si>
+    <t>H2S</t>
+  </si>
+  <si>
+    <t>H2SO4</t>
+  </si>
+  <si>
+    <t>H2SO3</t>
+  </si>
+  <si>
+    <t>HSCN</t>
+  </si>
+  <si>
+    <t>H2S2O3</t>
+  </si>
+  <si>
+    <t>H2SiO3</t>
+  </si>
+  <si>
+    <t>HCOOH</t>
+  </si>
+  <si>
+    <t>HOOC-COOH</t>
+  </si>
+  <si>
+    <t>CH3COOH</t>
+  </si>
+  <si>
+    <t>C2H5COOH</t>
+  </si>
+  <si>
+    <t>CH3CH(OH)COOH</t>
+  </si>
+  <si>
+    <t>C6H5OH</t>
+  </si>
+  <si>
+    <t>C6H5COOH</t>
+  </si>
+  <si>
+    <t>C7H6O3</t>
+  </si>
+  <si>
+    <t>C8H6O4</t>
+  </si>
+  <si>
+    <t>C6H8O7</t>
+  </si>
+  <si>
+    <t>N2H4</t>
+  </si>
+  <si>
+    <t>C6H5NH2</t>
+  </si>
+  <si>
+    <t>NH2OH</t>
+  </si>
+  <si>
+    <t>CH3NH2</t>
+  </si>
+  <si>
+    <t>C2H5NH2</t>
+  </si>
+  <si>
+    <t>NH3.H2O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H3AsO4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C2H5OH</t>
+  </si>
+  <si>
+    <t>C2H6</t>
+  </si>
+  <si>
+    <t>C2H2</t>
+  </si>
+  <si>
+    <t>CH2</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>CF4</t>
+  </si>
+  <si>
+    <t>Fe</t>
+  </si>
+  <si>
+    <t>Cu</t>
+  </si>
+  <si>
+    <t>Ag</t>
+  </si>
+  <si>
+    <t>Hg</t>
+  </si>
+  <si>
+    <t>Pt</t>
+  </si>
+  <si>
+    <t>Au</t>
+  </si>
+  <si>
+    <t>Pb</t>
+  </si>
+  <si>
+    <t>state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>formula</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CnH2nOn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHC(J/(kg*K))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATP+H2O=ADP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATP+H2O=ADP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N..H-O</t>
+  </si>
+  <si>
+    <t>{'N..H-O':1,'N-H..O':3}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N-H..O</t>
+  </si>
+  <si>
+    <t>NH3.4H2O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NH3+4*H2O=NH3.4H2O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>solubility</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>specific_heat_capacity</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>melting_point</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boiling_point</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>solubility</t>
-  </si>
-  <si>
-    <t>69.3+0.41(G+C)</t>
-  </si>
-  <si>
-    <t>DNA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>H2O=H{+}+OH{-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ka</t>
-  </si>
-  <si>
-    <t>pKa</t>
-  </si>
-  <si>
-    <t>H3AsO3</t>
-  </si>
-  <si>
-    <t>H3BO3</t>
-  </si>
-  <si>
-    <t>HBrO</t>
-  </si>
-  <si>
-    <t>HCNO</t>
-  </si>
-  <si>
-    <t>H2CO3</t>
-  </si>
-  <si>
-    <t>HClO</t>
-  </si>
-  <si>
-    <t>HClO2</t>
-  </si>
-  <si>
-    <t>H2CrO4</t>
-  </si>
-  <si>
-    <t>HF</t>
-  </si>
-  <si>
-    <t>HIO</t>
-  </si>
-  <si>
-    <t>HIO3</t>
-  </si>
-  <si>
-    <t>HNO2</t>
-  </si>
-  <si>
-    <t>H2O2</t>
-  </si>
-  <si>
-    <t>HPO3</t>
-  </si>
-  <si>
-    <t>H3PO4</t>
-  </si>
-  <si>
-    <t>H4P2O7</t>
-  </si>
-  <si>
-    <t>H3PO3</t>
-  </si>
-  <si>
-    <t>H2S</t>
-  </si>
-  <si>
-    <t>H2SO4</t>
-  </si>
-  <si>
-    <t>H2SO3</t>
-  </si>
-  <si>
-    <t>HSCN</t>
-  </si>
-  <si>
-    <t>H2S2O3</t>
-  </si>
-  <si>
-    <t>H2SiO3</t>
-  </si>
-  <si>
-    <t>HCOOH</t>
-  </si>
-  <si>
-    <t>HOOC-COOH</t>
-  </si>
-  <si>
-    <t>CH3COOH</t>
-  </si>
-  <si>
-    <t>C2H5COOH</t>
-  </si>
-  <si>
-    <t>CH3CH(OH)COOH</t>
-  </si>
-  <si>
-    <t>C6H5OH</t>
-  </si>
-  <si>
-    <t>C6H5COOH</t>
-  </si>
-  <si>
-    <t>C7H6O3</t>
-  </si>
-  <si>
-    <t>C8H6O4</t>
-  </si>
-  <si>
-    <t>C6H8O7</t>
-  </si>
-  <si>
-    <t>N2H4</t>
-  </si>
-  <si>
-    <t>C6H5NH2</t>
-  </si>
-  <si>
-    <t>NH2OH</t>
-  </si>
-  <si>
-    <t>CH3NH2</t>
-  </si>
-  <si>
-    <t>C2H5NH2</t>
-  </si>
-  <si>
-    <t>NH3.H2O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>H3AsO4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C2H5OH</t>
-  </si>
-  <si>
-    <t>C2H6</t>
-  </si>
-  <si>
-    <t>C2H2</t>
-  </si>
-  <si>
-    <t>CH2</t>
-  </si>
-  <si>
-    <t>CO</t>
-  </si>
-  <si>
-    <t>CF4</t>
-  </si>
-  <si>
-    <t>Fe</t>
-  </si>
-  <si>
-    <t>Cu</t>
-  </si>
-  <si>
-    <t>Ag</t>
-  </si>
-  <si>
-    <t>Hg</t>
-  </si>
-  <si>
-    <t>Pt</t>
-  </si>
-  <si>
-    <t>Au</t>
-  </si>
-  <si>
-    <t>Pb</t>
-  </si>
-  <si>
-    <t>state</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>formula</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>H2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CnH2nOn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SHC(J/(kg*K))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ATP+H2O=ADP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ATP+H2O=ADP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>~P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N..H-O</t>
-  </si>
-  <si>
-    <t>{'N..H-O':1,'N-H..O':3}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N-H..O</t>
-  </si>
-  <si>
-    <t>NH3.4H2O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NH3+4*H2O=NH3.4H2O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>ionization_constant</t>
   </si>
 </sst>
 </file>
@@ -1790,8 +1791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1815,16 +1816,16 @@
         <v>80</v>
       </c>
       <c r="D1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E1" t="s">
         <v>197</v>
       </c>
-      <c r="E1" t="s">
-        <v>198</v>
-      </c>
       <c r="F1" t="s">
-        <v>199</v>
+        <v>274</v>
       </c>
       <c r="G1" t="s">
-        <v>196</v>
+        <v>275</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -2082,21 +2083,21 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B25" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C25" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D26" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -2724,7 +2725,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B77">
         <v>29</v>
@@ -2732,7 +2733,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B78">
         <v>8</v>
@@ -2740,7 +2741,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -2754,7 +2755,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
@@ -2882,12 +2883,12 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -2901,13 +2902,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="18.1796875" customWidth="1"/>
+    <col min="1" max="1" width="18.1796875" customWidth="1"/>
+    <col min="2" max="2" width="21.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.1796875" customWidth="1"/>
     <col min="4" max="4" width="12.7265625" customWidth="1"/>
     <col min="8" max="8" width="18.90625" bestFit="1" customWidth="1"/>
   </cols>
@@ -2917,15 +2920,15 @@
         <v>95</v>
       </c>
       <c r="B1" t="s">
-        <v>203</v>
+        <v>276</v>
       </c>
       <c r="C1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B2" s="2">
         <v>1.7999999999999999E-16</v>
@@ -2936,7 +2939,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B3" s="2">
         <v>6.1999999999999998E-3</v>
@@ -2947,7 +2950,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B4">
         <v>5.1E-10</v>
@@ -2958,7 +2961,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B5">
         <v>5.7999999999999996E-10</v>
@@ -2969,7 +2972,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B6">
         <v>2.2999999999999999E-9</v>
@@ -2991,7 +2994,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B8" s="2">
         <v>3.3E-4</v>
@@ -3002,7 +3005,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B9" s="2">
         <v>4.4499999999999997E-7</v>
@@ -3013,7 +3016,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B10">
         <v>2.9799999999999999E-8</v>
@@ -3024,7 +3027,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B11" s="2">
         <v>1.0999999999999999E-2</v>
@@ -3035,7 +3038,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B12" s="2">
         <v>3.2000000000000001E-7</v>
@@ -3046,7 +3049,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B13" s="2">
         <v>6.8000000000000005E-4</v>
@@ -3057,7 +3060,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B14">
         <v>2.3000000000000001E-11</v>
@@ -3068,7 +3071,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B15">
         <v>0.49</v>
@@ -3079,7 +3082,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B16" s="2">
         <v>7.1000000000000002E-4</v>
@@ -3090,7 +3093,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B17">
         <v>2.1999999999999999E-12</v>
@@ -3101,7 +3104,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B18" s="2">
         <v>5.8999999999999997E-2</v>
@@ -3113,7 +3116,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B19" s="2">
         <v>7.11E-3</v>
@@ -3124,7 +3127,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B20">
         <v>0.2</v>
@@ -3136,7 +3139,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B21" s="2">
         <v>3.6999999999999998E-2</v>
@@ -3147,7 +3150,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B22" s="2">
         <v>1.3E-7</v>
@@ -3159,7 +3162,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B23" s="2">
         <v>1.0200000000000001E-2</v>
@@ -3170,7 +3173,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B24" s="2">
         <v>1.23E-2</v>
@@ -3182,7 +3185,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B25">
         <v>0.13</v>
@@ -3193,7 +3196,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B26">
         <v>0.25</v>
@@ -3205,7 +3208,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B27" s="2">
         <v>1.7000000000000001E-10</v>
@@ -3217,7 +3220,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B28" s="2">
         <v>1.8000000000000001E-4</v>
@@ -3228,7 +3231,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B29" s="2">
         <v>5.6000000000000001E-2</v>
@@ -3239,7 +3242,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B30" s="2">
         <v>1.7499999999999998E-5</v>
@@ -3250,7 +3253,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B31" s="2">
         <v>1.34E-5</v>
@@ -3261,7 +3264,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B32" s="2">
         <v>1.3799999999999999E-4</v>
@@ -3272,7 +3275,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B33">
         <v>1E-10</v>
@@ -3283,7 +3286,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B34" s="2">
         <v>6.2799999999999995E-5</v>
@@ -3294,7 +3297,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B35" s="2">
         <v>1E-3</v>
@@ -3305,7 +3308,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B36" s="2">
         <v>1.1199999999999999E-3</v>
@@ -3316,7 +3319,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B37" s="2">
         <v>7.4399999999999998E-4</v>
@@ -3327,7 +3330,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B38" s="2">
         <v>1.8E-5</v>
@@ -3338,7 +3341,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B39" s="2">
         <v>3.0000000000000001E-6</v>
@@ -3350,7 +3353,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B40">
         <v>4.2E-10</v>
@@ -3361,7 +3364,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B41">
         <v>9.1000000000000004E-9</v>
@@ -3373,7 +3376,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B42" s="2">
         <v>4.2000000000000002E-4</v>
@@ -3385,7 +3388,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B43" s="2">
         <v>5.5999999999999995E-4</v>
@@ -3397,7 +3400,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B44" s="2">
         <v>130000</v>
@@ -3443,21 +3446,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C2">
         <v>14300</v>
@@ -3468,7 +3471,7 @@
         <v>46</v>
       </c>
       <c r="B3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C3">
         <v>5193.2</v>
@@ -3479,7 +3482,7 @@
         <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C4">
         <v>2050</v>
@@ -3490,7 +3493,7 @@
         <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C5">
         <v>1030.0999999999999</v>
@@ -3501,7 +3504,7 @@
         <v>64</v>
       </c>
       <c r="B6" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C6">
         <v>3582</v>
@@ -3509,10 +3512,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C7">
         <v>2440</v>
@@ -3520,10 +3523,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B8" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C8">
         <v>2500</v>
@@ -3534,7 +3537,7 @@
         <v>49</v>
       </c>
       <c r="B9" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C9">
         <v>2156</v>
@@ -3542,10 +3545,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B10" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C10">
         <v>1729</v>
@@ -3553,10 +3556,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B11" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C11">
         <v>1511</v>
@@ -3564,10 +3567,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B12" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C12">
         <v>1300</v>
@@ -3575,10 +3578,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B13" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C13">
         <v>1105</v>
@@ -3586,10 +3589,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B14" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C14">
         <v>1042</v>
@@ -3597,10 +3600,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B15" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C15">
         <v>918</v>
@@ -3611,7 +3614,7 @@
         <v>54</v>
       </c>
       <c r="B16" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C16">
         <v>839</v>
@@ -3619,10 +3622,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B17" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C17">
         <v>1042</v>
@@ -3633,7 +3636,7 @@
         <v>73</v>
       </c>
       <c r="B18" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C18">
         <v>897</v>
@@ -3641,10 +3644,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B19" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C19">
         <v>823.9</v>
@@ -3655,7 +3658,7 @@
         <v>67</v>
       </c>
       <c r="B20" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C20">
         <v>710</v>
@@ -3663,10 +3666,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B21" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C21">
         <v>659.1</v>
@@ -3677,7 +3680,7 @@
         <v>169</v>
       </c>
       <c r="B22" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C22">
         <v>620</v>
@@ -3688,7 +3691,7 @@
         <v>45</v>
       </c>
       <c r="B23" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C23">
         <v>520</v>
@@ -3696,10 +3699,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B24" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C24">
         <v>444</v>
@@ -3710,7 +3713,7 @@
         <v>159</v>
       </c>
       <c r="B25" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C25">
         <v>377</v>
@@ -3718,10 +3721,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B26" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C26">
         <v>386</v>
@@ -3729,10 +3732,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B27" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C27">
         <v>233</v>
@@ -3740,10 +3743,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B28" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C28">
         <v>140</v>
@@ -3751,10 +3754,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B29" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C29">
         <v>135</v>
@@ -3762,10 +3765,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B30" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C30">
         <v>126</v>
@@ -3773,10 +3776,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>254</v>
+      </c>
+      <c r="B31" t="s">
         <v>257</v>
-      </c>
-      <c r="B31" t="s">
-        <v>260</v>
       </c>
       <c r="C31">
         <v>128</v>
@@ -3787,7 +3790,7 @@
         <v>57</v>
       </c>
       <c r="B32" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C32">
         <v>1850</v>
@@ -3798,7 +3801,7 @@
         <v>57</v>
       </c>
       <c r="B33" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C33">
         <v>4186</v>
@@ -3809,7 +3812,7 @@
         <v>57</v>
       </c>
       <c r="B34" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C34">
         <v>2050</v>

--- a/Science.xlsx
+++ b/Science.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="periodic_table" sheetId="3" r:id="rId1"/>
@@ -12,14 +12,14 @@
     <sheet name="chemical_bond" sheetId="1" r:id="rId3"/>
     <sheet name="chemical_equation" sheetId="5" r:id="rId4"/>
     <sheet name="ionic_equation" sheetId="6" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId6"/>
+    <sheet name="SHC" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="286">
   <si>
     <t>C=O</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -750,13 +750,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>H2O=H{+}+OH{-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pKa</t>
-  </si>
-  <si>
     <t>H3AsO3</t>
   </si>
   <si>
@@ -998,6 +991,49 @@
   </si>
   <si>
     <t>ionization_constant</t>
+  </si>
+  <si>
+    <t>ionization</t>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'H+','OH-'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'Na+','Cl-'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'K+','Cl-'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'NH4+','HCO3-','CO3^2-'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'NH4+','OH-'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H2O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'H+','CN-'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1789,10 +1825,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1800,12 +1836,15 @@
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="22.7265625" customWidth="1"/>
     <col min="3" max="3" width="23.90625" customWidth="1"/>
-    <col min="4" max="5" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.81640625" customWidth="1"/>
+    <col min="7" max="7" width="24.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>39</v>
       </c>
@@ -1822,13 +1861,19 @@
         <v>197</v>
       </c>
       <c r="F1" t="s">
+        <v>272</v>
+      </c>
+      <c r="G1" t="s">
+        <v>273</v>
+      </c>
+      <c r="H1" t="s">
+        <v>275</v>
+      </c>
+      <c r="I1" t="s">
         <v>274</v>
       </c>
-      <c r="G1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>42</v>
       </c>
@@ -1838,8 +1883,11 @@
       <c r="C2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>43</v>
       </c>
@@ -1849,8 +1897,11 @@
       <c r="C3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -1860,8 +1911,11 @@
       <c r="C4" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>57</v>
       </c>
@@ -1871,8 +1925,11 @@
       <c r="C5" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>82</v>
       </c>
@@ -1882,8 +1939,11 @@
       <c r="C6" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -1893,8 +1953,11 @@
       <c r="C7" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -1904,8 +1967,11 @@
       <c r="C8" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>55</v>
       </c>
@@ -1915,8 +1981,11 @@
       <c r="C9" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>56</v>
       </c>
@@ -1926,8 +1995,11 @@
       <c r="C10" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -1937,8 +2009,11 @@
       <c r="C11" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -1948,8 +2023,11 @@
       <c r="C12" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>54</v>
       </c>
@@ -1959,8 +2037,11 @@
       <c r="C13" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>96</v>
       </c>
@@ -1970,8 +2051,11 @@
       <c r="C14" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -1981,8 +2065,11 @@
       <c r="C15" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>44</v>
       </c>
@@ -1992,8 +2079,11 @@
       <c r="C16" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>168</v>
       </c>
@@ -2003,8 +2093,11 @@
       <c r="C17" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -2014,8 +2107,11 @@
       <c r="C18" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>53</v>
       </c>
@@ -2025,8 +2121,11 @@
       <c r="C19" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -2036,8 +2135,11 @@
       <c r="C20" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H20" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>51</v>
       </c>
@@ -2047,8 +2149,11 @@
       <c r="C21" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H21" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>163</v>
       </c>
@@ -2058,8 +2163,11 @@
       <c r="C22" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H22" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>169</v>
       </c>
@@ -2069,8 +2177,11 @@
       <c r="C23" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H23" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>170</v>
       </c>
@@ -2080,19 +2191,25 @@
       <c r="C24" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H24" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B25" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C25" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+      <c r="H25" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>199</v>
       </c>
@@ -2725,7 +2842,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B77">
         <v>29</v>
@@ -2733,7 +2850,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B78">
         <v>8</v>
@@ -2741,7 +2858,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -2883,12 +3000,12 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -2900,530 +3017,400 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H61"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.1796875" customWidth="1"/>
     <col min="2" max="2" width="21.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.1796875" customWidth="1"/>
-    <col min="4" max="4" width="12.7265625" customWidth="1"/>
-    <col min="8" max="8" width="18.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7265625" customWidth="1"/>
+    <col min="7" max="7" width="18.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>95</v>
       </c>
       <c r="B1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>200</v>
+        <v>284</v>
       </c>
       <c r="B2" s="2">
         <v>1.7999999999999999E-16</v>
       </c>
-      <c r="C2">
-        <v>15.74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B3" s="2">
         <v>6.1999999999999998E-3</v>
       </c>
-      <c r="C3">
-        <v>2.21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B4">
         <v>5.1E-10</v>
       </c>
-      <c r="C4">
-        <v>9.2899999999999991</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B5">
         <v>5.7999999999999996E-10</v>
       </c>
-      <c r="C5">
-        <v>9.24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B6">
         <v>2.2999999999999999E-9</v>
       </c>
-      <c r="C6">
-        <v>8.6300000000000008</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>51</v>
       </c>
       <c r="B7">
         <v>6.2000000000000003E-10</v>
       </c>
-      <c r="C7">
-        <v>9.2100000000000009</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B8" s="2">
         <v>3.3E-4</v>
       </c>
-      <c r="C8">
-        <v>3.48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B9" s="2">
         <v>4.4499999999999997E-7</v>
       </c>
-      <c r="C9">
-        <v>6.3520000000000003</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B10">
         <v>2.9799999999999999E-8</v>
       </c>
-      <c r="C10">
-        <v>7.5259999999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B11" s="2">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="C11">
-        <v>1.95</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B12" s="2">
         <v>3.2000000000000001E-7</v>
       </c>
-      <c r="C12">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B13" s="2">
         <v>6.8000000000000005E-4</v>
       </c>
-      <c r="C13">
-        <v>3.17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B14">
         <v>2.3000000000000001E-11</v>
       </c>
-      <c r="C14">
-        <v>10.64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B15">
         <v>0.49</v>
       </c>
-      <c r="C15">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B16" s="2">
         <v>7.1000000000000002E-4</v>
       </c>
-      <c r="C16">
-        <v>3.15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B17">
         <v>2.1999999999999999E-12</v>
       </c>
-      <c r="C17">
-        <v>11.65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B18" s="2">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="C18">
-        <v>1.23</v>
-      </c>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B19" s="2">
         <v>7.11E-3</v>
       </c>
-      <c r="C19">
-        <v>2.1800000000000002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B20">
         <v>0.2</v>
       </c>
-      <c r="C20">
-        <v>0.7</v>
-      </c>
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B21" s="2">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="C21">
-        <v>1.43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B22" s="2">
         <v>1.3E-7</v>
       </c>
-      <c r="C22">
-        <v>6.88</v>
-      </c>
-      <c r="H22" s="2"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B23" s="2">
         <v>1.0200000000000001E-2</v>
       </c>
-      <c r="C23">
-        <v>1.99</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B24" s="2">
         <v>1.23E-2</v>
       </c>
-      <c r="C24">
-        <v>1.91</v>
-      </c>
-      <c r="H24" s="2"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B25">
         <v>0.13</v>
       </c>
-      <c r="C25">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B26">
         <v>0.25</v>
       </c>
-      <c r="C26">
-        <v>0.6</v>
-      </c>
-      <c r="H26" s="2"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B27" s="2">
         <v>1.7000000000000001E-10</v>
       </c>
-      <c r="C27">
-        <v>9.77</v>
-      </c>
-      <c r="H27" s="2"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B28" s="2">
         <v>1.8000000000000001E-4</v>
       </c>
-      <c r="C28">
-        <v>3.7450000000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B29" s="2">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="C29">
-        <v>1.252</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B30" s="2">
         <v>1.7499999999999998E-5</v>
       </c>
-      <c r="C30">
-        <v>4.7569999999999997</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B31" s="2">
         <v>1.34E-5</v>
       </c>
-      <c r="C31">
-        <v>4.8739999999999997</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B32" s="2">
         <v>1.3799999999999999E-4</v>
       </c>
-      <c r="C32">
-        <v>3.86</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B33">
         <v>1E-10</v>
       </c>
-      <c r="C33">
-        <v>9.98</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B34" s="2">
         <v>6.2799999999999995E-5</v>
       </c>
-      <c r="C34">
-        <v>4.202</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B35" s="2">
         <v>1E-3</v>
       </c>
-      <c r="C35">
-        <v>2.98</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B36" s="2">
         <v>1.1199999999999999E-3</v>
       </c>
-      <c r="C36">
-        <v>2.95</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B37" s="2">
         <v>7.4399999999999998E-4</v>
       </c>
-      <c r="C37">
-        <v>3.1280000000000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B38" s="2">
         <v>1.8E-5</v>
       </c>
-      <c r="C38">
-        <v>4.74</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B39" s="2">
         <v>3.0000000000000001E-6</v>
       </c>
-      <c r="C39">
-        <v>5.52</v>
-      </c>
-      <c r="H39" s="2"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B40">
         <v>4.2E-10</v>
       </c>
-      <c r="C40">
-        <v>9.3800000000000008</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B41">
         <v>9.1000000000000004E-9</v>
       </c>
-      <c r="C41">
-        <v>8.0399999999999991</v>
-      </c>
-      <c r="H41" s="2"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B42" s="2">
         <v>4.2000000000000002E-4</v>
       </c>
-      <c r="C42">
-        <v>3.38</v>
-      </c>
-      <c r="H42" s="2"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G42" s="2"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B43" s="2">
         <v>5.5999999999999995E-4</v>
       </c>
-      <c r="C43">
-        <v>3.25</v>
-      </c>
-      <c r="H43" s="2"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G43" s="2"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B44" s="2">
         <v>130000</v>
       </c>
-      <c r="H44" s="2"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H45" s="2"/>
-    </row>
-    <row r="55" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H55" s="2"/>
-    </row>
-    <row r="58" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H58" s="2"/>
-    </row>
-    <row r="59" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H59" s="2"/>
-    </row>
-    <row r="60" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H60" s="2"/>
-    </row>
-    <row r="61" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H61" s="2"/>
+      <c r="G44" s="2"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G45" s="2"/>
+    </row>
+    <row r="55" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G55" s="2"/>
+    </row>
+    <row r="58" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G58" s="2"/>
+    </row>
+    <row r="59" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G59" s="2"/>
+    </row>
+    <row r="60" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G60" s="2"/>
+    </row>
+    <row r="61" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G61" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3435,8 +3422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3446,21 +3433,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C2">
         <v>14300</v>
@@ -3471,7 +3458,7 @@
         <v>46</v>
       </c>
       <c r="B3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C3">
         <v>5193.2</v>
@@ -3482,7 +3469,7 @@
         <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C4">
         <v>2050</v>
@@ -3493,7 +3480,7 @@
         <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C5">
         <v>1030.0999999999999</v>
@@ -3504,7 +3491,7 @@
         <v>64</v>
       </c>
       <c r="B6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C6">
         <v>3582</v>
@@ -3512,10 +3499,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C7">
         <v>2440</v>
@@ -3523,10 +3510,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B8" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C8">
         <v>2500</v>
@@ -3537,7 +3524,7 @@
         <v>49</v>
       </c>
       <c r="B9" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C9">
         <v>2156</v>
@@ -3545,10 +3532,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B10" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C10">
         <v>1729</v>
@@ -3556,10 +3543,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B11" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C11">
         <v>1511</v>
@@ -3567,10 +3554,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B12" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C12">
         <v>1300</v>
@@ -3578,10 +3565,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B13" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C13">
         <v>1105</v>
@@ -3589,10 +3576,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B14" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C14">
         <v>1042</v>
@@ -3600,10 +3587,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B15" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C15">
         <v>918</v>
@@ -3614,7 +3601,7 @@
         <v>54</v>
       </c>
       <c r="B16" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C16">
         <v>839</v>
@@ -3622,10 +3609,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B17" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C17">
         <v>1042</v>
@@ -3636,7 +3623,7 @@
         <v>73</v>
       </c>
       <c r="B18" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C18">
         <v>897</v>
@@ -3644,10 +3631,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B19" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C19">
         <v>823.9</v>
@@ -3658,7 +3645,7 @@
         <v>67</v>
       </c>
       <c r="B20" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C20">
         <v>710</v>
@@ -3666,10 +3653,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B21" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C21">
         <v>659.1</v>
@@ -3680,7 +3667,7 @@
         <v>169</v>
       </c>
       <c r="B22" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C22">
         <v>620</v>
@@ -3691,7 +3678,7 @@
         <v>45</v>
       </c>
       <c r="B23" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C23">
         <v>520</v>
@@ -3699,10 +3686,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B24" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C24">
         <v>444</v>
@@ -3713,7 +3700,7 @@
         <v>159</v>
       </c>
       <c r="B25" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C25">
         <v>377</v>
@@ -3721,10 +3708,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B26" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C26">
         <v>386</v>
@@ -3732,10 +3719,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B27" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C27">
         <v>233</v>
@@ -3743,10 +3730,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B28" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C28">
         <v>140</v>
@@ -3754,10 +3741,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B29" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C29">
         <v>135</v>
@@ -3765,10 +3752,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B30" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C30">
         <v>126</v>
@@ -3776,10 +3763,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B31" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C31">
         <v>128</v>
@@ -3790,7 +3777,7 @@
         <v>57</v>
       </c>
       <c r="B32" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C32">
         <v>1850</v>
@@ -3801,7 +3788,7 @@
         <v>57</v>
       </c>
       <c r="B33" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C33">
         <v>4186</v>
@@ -3812,7 +3799,7 @@
         <v>57</v>
       </c>
       <c r="B34" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C34">
         <v>2050</v>

--- a/Science.xlsx
+++ b/Science.xlsx
@@ -4,22 +4,24 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="periodic_table" sheetId="3" r:id="rId1"/>
-    <sheet name="molecule" sheetId="2" r:id="rId2"/>
-    <sheet name="chemical_bond" sheetId="1" r:id="rId3"/>
+    <sheet name="chemical_bond" sheetId="1" r:id="rId2"/>
+    <sheet name="molecule" sheetId="2" r:id="rId3"/>
     <sheet name="chemical_equation" sheetId="5" r:id="rId4"/>
-    <sheet name="ionic_equation" sheetId="6" r:id="rId5"/>
-    <sheet name="SHC" sheetId="7" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">chemical_bond!$A$1:$B$80</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">molecule!$A$1:$I$84</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="401">
   <si>
     <t>C=O</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -668,9 +670,6 @@
     <t>Carbon Dioxide</t>
   </si>
   <si>
-    <t>carbon monoxide</t>
-  </si>
-  <si>
     <t>Sodium Chloride</t>
   </si>
   <si>
@@ -683,14 +682,6 @@
     <t>Hydrogen Cyanide</t>
   </si>
   <si>
-    <t>pre-exponential factor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>activation energy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>None</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -727,10 +718,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>['light',True]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -750,143 +737,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>H3AsO3</t>
-  </si>
-  <si>
-    <t>H3BO3</t>
-  </si>
-  <si>
-    <t>HBrO</t>
-  </si>
-  <si>
-    <t>HCNO</t>
-  </si>
-  <si>
-    <t>H2CO3</t>
-  </si>
-  <si>
-    <t>HClO</t>
-  </si>
-  <si>
-    <t>HClO2</t>
-  </si>
-  <si>
-    <t>H2CrO4</t>
-  </si>
-  <si>
-    <t>HF</t>
-  </si>
-  <si>
-    <t>HIO</t>
-  </si>
-  <si>
-    <t>HIO3</t>
-  </si>
-  <si>
-    <t>HNO2</t>
-  </si>
-  <si>
-    <t>H2O2</t>
-  </si>
-  <si>
-    <t>HPO3</t>
-  </si>
-  <si>
-    <t>H3PO4</t>
-  </si>
-  <si>
-    <t>H4P2O7</t>
-  </si>
-  <si>
-    <t>H3PO3</t>
-  </si>
-  <si>
     <t>H2S</t>
   </si>
   <si>
-    <t>H2SO4</t>
-  </si>
-  <si>
-    <t>H2SO3</t>
-  </si>
-  <si>
-    <t>HSCN</t>
-  </si>
-  <si>
-    <t>H2S2O3</t>
-  </si>
-  <si>
-    <t>H2SiO3</t>
-  </si>
-  <si>
-    <t>HCOOH</t>
-  </si>
-  <si>
-    <t>HOOC-COOH</t>
-  </si>
-  <si>
-    <t>CH3COOH</t>
-  </si>
-  <si>
-    <t>C2H5COOH</t>
-  </si>
-  <si>
-    <t>CH3CH(OH)COOH</t>
-  </si>
-  <si>
-    <t>C6H5OH</t>
-  </si>
-  <si>
-    <t>C6H5COOH</t>
-  </si>
-  <si>
-    <t>C7H6O3</t>
-  </si>
-  <si>
-    <t>C8H6O4</t>
-  </si>
-  <si>
-    <t>C6H8O7</t>
-  </si>
-  <si>
-    <t>N2H4</t>
-  </si>
-  <si>
-    <t>C6H5NH2</t>
-  </si>
-  <si>
-    <t>NH2OH</t>
-  </si>
-  <si>
-    <t>CH3NH2</t>
-  </si>
-  <si>
-    <t>C2H5NH2</t>
-  </si>
-  <si>
-    <t>NH3.H2O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>H3AsO4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>C2H5OH</t>
   </si>
   <si>
-    <t>C2H6</t>
-  </si>
-  <si>
     <t>C2H2</t>
   </si>
   <si>
-    <t>CH2</t>
-  </si>
-  <si>
-    <t>CO</t>
-  </si>
-  <si>
     <t>CF4</t>
   </si>
   <si>
@@ -911,55 +770,10 @@
     <t>Pb</t>
   </si>
   <si>
-    <t>state</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>formula</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>H2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CnH2nOn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SHC(J/(kg*K))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ATP+H2O=ADP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ATP+H2O=ADP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>~P</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -986,53 +800,669 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>specific_heat_capacity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ionization_constant</t>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'H+','OH-'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'Na+','Cl-'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'K+','Cl-'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'NH4+','HCO3-','CO3^2-'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'NH4+','OH-'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'H+','CN-'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D(+)-Cellobiose</t>
+  </si>
+  <si>
+    <t>C12H22011</t>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ea(kJ/mol)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Km(mmol/L)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kcat/Km(L/(mmol*s))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kcat(1/s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NADP+H2O=NADPH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>specific_heat_capacity kJ/(mol*K)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Li</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Li-Li</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lithium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'Li=Li':0.5}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ti</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ni</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ga</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>As</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Au</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Carbon Monoxide</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DNA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碳酸铵</t>
+  </si>
+  <si>
+    <t>氯化铵</t>
+  </si>
+  <si>
+    <t>磷酸二氢铵</t>
+  </si>
+  <si>
+    <t>磷酸铵</t>
+  </si>
+  <si>
+    <t>(NH4)3PO4</t>
+  </si>
+  <si>
+    <t>一氧化二氮</t>
+  </si>
+  <si>
+    <t>N2O</t>
+  </si>
+  <si>
+    <t>CaCl2</t>
+  </si>
+  <si>
+    <t>Ca(HCO3)2</t>
+  </si>
+  <si>
+    <t>CaF2</t>
+  </si>
+  <si>
+    <t>CaHPO4</t>
+  </si>
+  <si>
+    <t>Ca(OH)2</t>
+  </si>
+  <si>
+    <t>CaC2O4</t>
+  </si>
+  <si>
+    <t>Ca3(PO4)2</t>
+  </si>
+  <si>
+    <t>K2CO3</t>
+  </si>
+  <si>
+    <t>氯酸钾</t>
+  </si>
+  <si>
+    <t>KClO3</t>
+  </si>
+  <si>
+    <t>碳酸氢钾</t>
+  </si>
+  <si>
+    <t>KHCO3</t>
+  </si>
+  <si>
+    <t>磷酸一氢钾</t>
+  </si>
+  <si>
+    <t>K2HPO4</t>
+  </si>
+  <si>
+    <t>氢氧化钾</t>
+  </si>
+  <si>
+    <t>KOH</t>
+  </si>
+  <si>
+    <t>K2C2O4</t>
+  </si>
+  <si>
+    <t>磷酸钾</t>
+  </si>
+  <si>
+    <t>K3PO4</t>
+  </si>
+  <si>
+    <t>乙酸锂</t>
+  </si>
+  <si>
+    <t>LiC2H3O2</t>
+  </si>
+  <si>
+    <t>碳酸锂</t>
+  </si>
+  <si>
+    <t>Li2CO3</t>
+  </si>
+  <si>
+    <t>氯化锂</t>
+  </si>
+  <si>
+    <t>LiCl</t>
+  </si>
+  <si>
+    <t>氢氧化锂</t>
+  </si>
+  <si>
+    <t>LiOH</t>
+  </si>
+  <si>
+    <t>草酸锂</t>
+  </si>
+  <si>
+    <t>Li2C2O4</t>
+  </si>
+  <si>
+    <t>磷酸锂</t>
+  </si>
+  <si>
+    <t>Li3PO4</t>
+  </si>
+  <si>
+    <t>AlCl3</t>
+  </si>
+  <si>
+    <t>Al(OH)3</t>
+  </si>
+  <si>
+    <t>NH4Cl</t>
+  </si>
+  <si>
+    <t>(NH4)2CO3</t>
+  </si>
+  <si>
+    <t>NH4H2PO4</t>
+  </si>
+  <si>
+    <t>(NH4)2HPO4</t>
+  </si>
+  <si>
+    <t>CaCO3</t>
+  </si>
+  <si>
+    <t>He</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ethanol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'C-H':6,'C-O':1,'C-C':1,'H-O':1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH3CH3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'C-H':6,'C-C':1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'C-H':2,'C3C':1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ethane</t>
   </si>
   <si>
     <t>ionization</t>
-  </si>
-  <si>
-    <t>None</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'H+','OH-'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'Na+','Cl-'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'K+','Cl-'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>None</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>None</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'NH4+','HCO3-','CO3^2-'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'NH4+','OH-'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>H2O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'H+','CN-'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>density</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3*NO2+H2O=2*HNO3+NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HCl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> -151.8</t>
+  </si>
+  <si>
+    <t>NaCO3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碳酸钠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MgO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Al2O3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CaO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fe2O3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fe3O4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CuO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Na</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'N-H':8,'N-O':2,'C-O':2,'C=O':1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>磷酸氢铵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'NH4+','CO3-'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Argentum</t>
+  </si>
+  <si>
+    <t>Aluminium</t>
+  </si>
+  <si>
+    <t>Aluminum oxide</t>
+  </si>
+  <si>
+    <t>{'Al-O':2,'Al=O':2}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'Al-Al':0.5}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'Ag-Ag':0.5}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'Al3+','OH-'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aluminium hydroxide</t>
+  </si>
+  <si>
+    <t>{'Al-O':3,'H-O':3}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aluminium chloride</t>
+  </si>
+  <si>
+    <t>{'Al3+','Cl-'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AlF3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>{'Au-Au':0.5}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'Al-F':3}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'Al-Cl':3}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'Al3+','F-'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Welding Gas</t>
+  </si>
+  <si>
+    <t>Calcium oxide</t>
+  </si>
+  <si>
+    <t>{'Ca=O':1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Calcium bicarbonate</t>
+  </si>
+  <si>
+    <t>{'Ca-O':2,'C-O':4,'C=O':2,'H-O':2}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'Ca2+','HCO3-','CO3^2-','H+'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>calcium hydroxide</t>
+  </si>
+  <si>
+    <t>{'Ca-O':2,'H-O':2}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'Ca2+','OH-'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Calcium Phosphate Tribasic</t>
+  </si>
+  <si>
+    <t>{'Ca-O':6,'P-O':6,'P=O':2}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'Ca2+','PO4^3-'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>calcium oxalate</t>
+  </si>
+  <si>
+    <t>{'Ca2+','C2O4^2-'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'Ca-O':2,'C-O':2,'C=O':2}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Calcium chloride</t>
+  </si>
+  <si>
+    <t>{'Ca-Cl':2}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'Ca2+','Cl-'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Calcium carbonate</t>
+  </si>
+  <si>
+    <t>{'Ca2+','CO3^2-'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fluorspar</t>
+  </si>
+  <si>
+    <t>{'Ca-F':2}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'Ca2+','F-'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Calcium hydrogen phosphate</t>
+  </si>
+  <si>
+    <t>{'Ca-O':2,'P-O':3,'P=O':1,'H-O':1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'Ca2+','PO4^3-','HPO4^2-','H+'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Carbon tetrafluoride</t>
+  </si>
+  <si>
+    <t>{'C-F':4}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>copper</t>
+  </si>
+  <si>
+    <t>{'Cu-Cu':0.5}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cupric oxide</t>
+  </si>
+  <si>
+    <t>{'Cu=O':1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iron</t>
+  </si>
+  <si>
+    <t>{'Fe-Fe':1/3}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ferric oxide</t>
+  </si>
+  <si>
+    <t>{'Fe-O':6}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ferroferric oxide</t>
+  </si>
+  <si>
+    <t>{'Fe-O':8}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hydrogen sulfide</t>
+  </si>
+  <si>
+    <t>{'S-H':2}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'H+','S2-'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hydrogen chloride</t>
+  </si>
+  <si>
+    <t>{'Cl-H':1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'H+','Cl-'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Helium</t>
+  </si>
+  <si>
+    <t>Mercury</t>
+  </si>
+  <si>
+    <t>Potassium</t>
+  </si>
+  <si>
+    <t>Potassium Oxalate Monohydrate</t>
+  </si>
+  <si>
+    <t>{'K+','C2O4^2-'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'K-O':2,'C-O':2,'C=O':2,'C-C':1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'Ca-O':2,'C-O':2,'C=O':2,'C-C':1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Potassium carbonate</t>
+  </si>
+  <si>
+    <t>{'K-O':2,'C-O':2,'C=O':2}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'K+','CO3^2-'}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1076,10 +1506,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1384,10 +1820,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1692,13 +2128,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>160</v>
+        <v>237</v>
       </c>
       <c r="B22">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C22">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D22">
         <v>3</v>
@@ -1706,114 +2142,352 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>161</v>
+        <v>238</v>
       </c>
       <c r="B23">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C23">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D23">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>158</v>
+        <v>239</v>
       </c>
       <c r="B24">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C24">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>159</v>
+        <v>240</v>
       </c>
       <c r="B25">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C25">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>156</v>
+        <v>241</v>
       </c>
       <c r="B26">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C26">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="D26">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B27">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C27">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D27">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B28">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C28">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>153</v>
+        <v>242</v>
       </c>
       <c r="B29">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="C29">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="D29">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>158</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30">
+        <v>34</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>159</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <v>35</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>243</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="C32">
+        <v>39</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>244</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="C33">
+        <v>41</v>
+      </c>
+      <c r="D33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>245</v>
+      </c>
+      <c r="B34">
+        <v>33</v>
+      </c>
+      <c r="C34">
+        <v>42</v>
+      </c>
+      <c r="D34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>156</v>
+      </c>
+      <c r="B35">
+        <v>34</v>
+      </c>
+      <c r="C35">
+        <v>46</v>
+      </c>
+      <c r="D35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>154</v>
+      </c>
+      <c r="B36">
+        <v>35</v>
+      </c>
+      <c r="C36">
+        <v>35</v>
+      </c>
+      <c r="D36">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>246</v>
+      </c>
+      <c r="B37">
+        <v>36</v>
+      </c>
+      <c r="C37">
+        <v>48</v>
+      </c>
+      <c r="D37">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>157</v>
+      </c>
+      <c r="B38">
+        <v>37</v>
+      </c>
+      <c r="C38">
+        <v>48</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>247</v>
+      </c>
+      <c r="B39">
+        <v>47</v>
+      </c>
+      <c r="C39">
+        <v>61</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>248</v>
+      </c>
+      <c r="B40">
+        <v>54</v>
+      </c>
+      <c r="C40">
+        <v>77</v>
+      </c>
+      <c r="D40">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>153</v>
+      </c>
+      <c r="B41">
+        <v>53</v>
+      </c>
+      <c r="C41">
+        <v>74</v>
+      </c>
+      <c r="D41">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>155</v>
       </c>
-      <c r="B30">
+      <c r="B42">
         <v>82</v>
       </c>
-      <c r="C30">
+      <c r="C42">
         <v>125</v>
       </c>
-      <c r="D30">
+      <c r="D42">
         <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>250</v>
+      </c>
+      <c r="B43">
+        <v>78</v>
+      </c>
+      <c r="C43">
+        <v>117</v>
+      </c>
+      <c r="D43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>249</v>
+      </c>
+      <c r="B44">
+        <v>79</v>
+      </c>
+      <c r="C44">
+        <v>118</v>
+      </c>
+      <c r="D44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>252</v>
+      </c>
+      <c r="B45">
+        <v>80</v>
+      </c>
+      <c r="C45">
+        <v>120</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>251</v>
+      </c>
+      <c r="B46">
+        <v>82</v>
+      </c>
+      <c r="C46">
+        <v>125</v>
+      </c>
+      <c r="D46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>253</v>
+      </c>
+      <c r="B47">
+        <v>92</v>
+      </c>
+      <c r="C47">
+        <v>146</v>
+      </c>
+      <c r="D47">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1825,411 +2499,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:B80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="22.7265625" customWidth="1"/>
-    <col min="3" max="3" width="23.90625" customWidth="1"/>
-    <col min="4" max="4" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.08984375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D1" t="s">
-        <v>196</v>
-      </c>
-      <c r="E1" t="s">
-        <v>197</v>
-      </c>
-      <c r="F1" t="s">
-        <v>272</v>
-      </c>
-      <c r="G1" t="s">
-        <v>273</v>
-      </c>
-      <c r="H1" t="s">
-        <v>275</v>
-      </c>
-      <c r="I1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" t="s">
-        <v>101</v>
-      </c>
-      <c r="H3" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" t="s">
-        <v>94</v>
-      </c>
-      <c r="H4" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5" t="s">
-        <v>97</v>
-      </c>
-      <c r="H5" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" t="s">
-        <v>98</v>
-      </c>
-      <c r="H6" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C7" t="s">
-        <v>99</v>
-      </c>
-      <c r="H7" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C8" t="s">
-        <v>100</v>
-      </c>
-      <c r="H8" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" t="s">
-        <v>175</v>
-      </c>
-      <c r="C9" t="s">
-        <v>102</v>
-      </c>
-      <c r="H9" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10" t="s">
-        <v>176</v>
-      </c>
-      <c r="C10" t="s">
-        <v>103</v>
-      </c>
-      <c r="H10" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" t="s">
-        <v>91</v>
-      </c>
-      <c r="C11" t="s">
-        <v>104</v>
-      </c>
-      <c r="H11" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C12" t="s">
-        <v>105</v>
-      </c>
-      <c r="H12" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13" t="s">
-        <v>177</v>
-      </c>
-      <c r="C13" t="s">
-        <v>106</v>
-      </c>
-      <c r="H13" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>96</v>
-      </c>
-      <c r="B14" t="s">
-        <v>178</v>
-      </c>
-      <c r="C14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H14" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" t="s">
-        <v>92</v>
-      </c>
-      <c r="C15" t="s">
-        <v>108</v>
-      </c>
-      <c r="H15" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" t="s">
-        <v>109</v>
-      </c>
-      <c r="H16" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>168</v>
-      </c>
-      <c r="B17" t="s">
-        <v>168</v>
-      </c>
-      <c r="C17" t="s">
-        <v>171</v>
-      </c>
-      <c r="H17" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" t="s">
-        <v>179</v>
-      </c>
-      <c r="C18" t="s">
-        <v>110</v>
-      </c>
-      <c r="H18" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" t="s">
-        <v>180</v>
-      </c>
-      <c r="C19" t="s">
-        <v>111</v>
-      </c>
-      <c r="H19" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>58</v>
-      </c>
-      <c r="B20" t="s">
-        <v>181</v>
-      </c>
-      <c r="C20" t="s">
-        <v>112</v>
-      </c>
-      <c r="H20" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21" t="s">
-        <v>182</v>
-      </c>
-      <c r="C21" t="s">
-        <v>113</v>
-      </c>
-      <c r="H21" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>163</v>
-      </c>
-      <c r="B22" t="s">
-        <v>162</v>
-      </c>
-      <c r="C22" t="s">
-        <v>164</v>
-      </c>
-      <c r="H22" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>169</v>
-      </c>
-      <c r="B23" t="s">
-        <v>169</v>
-      </c>
-      <c r="C23" t="s">
-        <v>172</v>
-      </c>
-      <c r="H23" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>170</v>
-      </c>
-      <c r="B24" t="s">
-        <v>170</v>
-      </c>
-      <c r="C24" t="s">
-        <v>173</v>
-      </c>
-      <c r="H24" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>270</v>
-      </c>
-      <c r="B25" t="s">
-        <v>270</v>
-      </c>
-      <c r="C25" t="s">
-        <v>268</v>
-      </c>
-      <c r="H25" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>199</v>
-      </c>
-      <c r="D26" t="s">
-        <v>198</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B79"/>
-  <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="D74" sqref="D74"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2248,186 +2521,183 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
-        <v>146</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>127</v>
       </c>
       <c r="B3">
-        <v>498</v>
+        <v>644</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="B4">
-        <v>436</v>
+        <v>515</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>121</v>
       </c>
       <c r="B5">
-        <v>498.7</v>
+        <v>193.87</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>123</v>
       </c>
       <c r="B6">
-        <v>156.9</v>
+        <v>365.7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>126</v>
       </c>
       <c r="B7">
-        <v>568.6</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>242.58</v>
+        <v>682</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>119</v>
       </c>
       <c r="B9">
-        <v>431.8</v>
+        <v>644</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="B10">
-        <v>272</v>
+        <v>803</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B11">
-        <v>469</v>
+        <v>577</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>140</v>
+        <v>36</v>
       </c>
       <c r="B12">
-        <v>238</v>
+        <v>812</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="B13">
-        <v>345</v>
+        <v>937</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B14">
-        <v>644</v>
+        <v>393</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="B15">
-        <v>515</v>
+        <v>284</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="B16">
-        <v>193</v>
+        <v>368</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>115</v>
       </c>
       <c r="B17">
-        <v>418</v>
+        <v>339</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>114</v>
       </c>
       <c r="B18">
-        <v>946</v>
+        <v>452</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B19">
-        <v>176</v>
+        <v>431</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>117</v>
       </c>
       <c r="B20">
-        <v>607</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B21">
-        <v>431</v>
+        <v>242.58</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B22">
-        <v>368</v>
+        <v>431.8</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>7</v>
+        <v>125</v>
       </c>
       <c r="B23">
-        <v>682</v>
+        <v>272</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>118</v>
       </c>
       <c r="B24">
-        <v>812</v>
+        <v>331</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -2440,202 +2710,202 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="B26">
-        <v>803</v>
+        <v>305</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>8</v>
+        <v>131</v>
       </c>
       <c r="B27">
-        <v>431</v>
+        <v>272</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="B28">
-        <v>452</v>
+        <v>347</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>115</v>
+        <v>1</v>
       </c>
       <c r="B29">
-        <v>339</v>
+        <v>156.9</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>116</v>
+        <v>4</v>
       </c>
       <c r="B30">
-        <v>284</v>
+        <v>568.6</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>129</v>
+        <v>16</v>
       </c>
       <c r="B31">
-        <v>393</v>
+        <v>436</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>117</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>232</v>
+        <v>498.7</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B33">
-        <v>331</v>
+        <v>298.7</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B34">
-        <v>644</v>
+        <v>151</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="B35">
-        <v>937</v>
+        <v>380</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>130</v>
+        <v>17</v>
       </c>
       <c r="B36">
-        <v>305</v>
+        <v>433</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>131</v>
+        <v>18</v>
       </c>
       <c r="B37">
-        <v>272</v>
+        <v>498</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B38">
-        <v>577</v>
+        <v>325</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B39">
-        <v>347</v>
+        <v>469</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>14</v>
+        <v>140</v>
       </c>
       <c r="B40">
-        <v>209</v>
+        <v>238</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>29</v>
+        <v>141</v>
       </c>
       <c r="B41">
-        <v>328</v>
+        <v>345</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>15</v>
+        <v>234</v>
       </c>
       <c r="B42">
-        <v>410</v>
+        <v>513.29999999999995</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>30</v>
+        <v>209</v>
       </c>
       <c r="B43">
-        <v>560</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B44">
-        <v>490</v>
+        <v>418</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>134</v>
+        <v>28</v>
       </c>
       <c r="B45">
-        <v>272</v>
+        <v>607</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B46">
-        <v>319</v>
+        <v>946</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="B47">
-        <v>186</v>
+        <v>367</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B48">
-        <v>519</v>
+        <v>412</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B49">
-        <v>412</v>
+        <v>519</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="B50">
-        <v>367</v>
+        <v>186</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -2648,217 +2918,2060 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B52">
-        <v>498</v>
+        <v>431</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>17</v>
+        <v>211</v>
       </c>
       <c r="B53">
-        <v>433</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>137</v>
+        <v>38</v>
       </c>
       <c r="B54">
-        <v>380</v>
+        <v>193</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>138</v>
+        <v>27</v>
       </c>
       <c r="B55">
-        <v>325</v>
+        <v>176</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B56">
-        <v>268</v>
+        <v>498</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>150</v>
+        <v>13</v>
+      </c>
+      <c r="B57">
+        <v>146</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B58">
-        <v>339</v>
+        <v>560</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B59">
-        <v>364</v>
+        <v>382</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>149</v>
+        <v>134</v>
+      </c>
+      <c r="B60">
+        <v>272</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>25</v>
+        <v>144</v>
       </c>
       <c r="B61">
-        <v>176</v>
+        <v>346</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B62">
-        <v>377</v>
+        <v>319</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B63">
-        <v>460</v>
+        <v>490</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B64">
-        <v>552</v>
+        <v>328</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B65">
-        <v>360</v>
+        <v>410</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>121</v>
+        <v>14</v>
       </c>
       <c r="B66">
-        <v>193.87</v>
+        <v>209</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="B67">
-        <v>365.7</v>
+        <v>428</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="B68">
-        <v>235</v>
+        <v>494</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="B69">
-        <v>151</v>
+        <v>319</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>124</v>
-      </c>
-      <c r="B70">
-        <v>298.7</v>
+        <v>149</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>143</v>
-      </c>
-      <c r="B71">
-        <v>382</v>
+        <v>150</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="B72">
-        <v>346</v>
+        <v>314</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>145</v>
+        <v>19</v>
       </c>
       <c r="B73">
-        <v>428</v>
+        <v>339</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>146</v>
+        <v>21</v>
       </c>
       <c r="B74">
-        <v>494</v>
+        <v>360</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>147</v>
+        <v>22</v>
       </c>
       <c r="B75">
-        <v>319</v>
+        <v>552</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>151</v>
+        <v>23</v>
       </c>
       <c r="B76">
-        <v>314</v>
+        <v>377</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>267</v>
+        <v>24</v>
       </c>
       <c r="B77">
-        <v>29</v>
+        <v>460</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>269</v>
+        <v>25</v>
       </c>
       <c r="B78">
-        <v>8</v>
+        <v>176</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>148</v>
+      </c>
+      <c r="B79">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>20</v>
+      </c>
+      <c r="B80">
+        <v>268</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B80">
+    <sortState ref="A2:B80">
+      <sortCondition ref="A1:A80"/>
+    </sortState>
+  </autoFilter>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I84"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.08984375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="27.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.90625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.36328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.36328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.7265625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E2" s="3">
+        <v>10490</v>
+      </c>
+      <c r="F2" s="3">
+        <v>962</v>
+      </c>
+      <c r="G2" s="3">
+        <v>961.78</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0.23300000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E3" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F3" s="3">
+        <v>660</v>
+      </c>
+      <c r="G3" s="3">
+        <v>2460</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0.89700000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E4" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F4" s="3">
+        <v>2054</v>
+      </c>
+      <c r="G4" s="3">
+        <v>2980</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F5" s="3">
+        <v>300</v>
+      </c>
+      <c r="H5" s="3">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2440</v>
+      </c>
+      <c r="F6" s="3">
+        <v>194</v>
+      </c>
+      <c r="G6" s="3">
+        <v>181</v>
+      </c>
+      <c r="H6" s="3">
+        <v>45.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="E7" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1040</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1272</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E8" s="3">
+        <v>19320</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1064</v>
+      </c>
+      <c r="G8" s="3">
+        <v>2856</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0.126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2250</v>
+      </c>
+      <c r="F9" s="3">
+        <v>3500</v>
+      </c>
+      <c r="G9" s="3">
+        <v>4827</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="F10" s="3">
+        <v>-183.3</v>
+      </c>
+      <c r="G10" s="3">
+        <v>-88.6</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="I10" s="3">
+        <v>1.5109999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="28" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E11" s="3">
+        <v>789</v>
+      </c>
+      <c r="F11" s="3">
+        <v>-114</v>
+      </c>
+      <c r="G11" s="3">
+        <v>78</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="I11" s="3">
+        <v>2.44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E12" s="3">
+        <v>3350</v>
+      </c>
+      <c r="F12" s="3">
+        <v>2572</v>
+      </c>
+      <c r="G12" s="3">
+        <v>2850</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="28" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="H13" s="3">
+        <v>16.600000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="E14" s="3">
+        <v>2240</v>
+      </c>
+      <c r="F14" s="3">
+        <v>580</v>
+      </c>
+      <c r="G14" s="3">
+        <v>2850</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0.17299999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="E15" s="3">
+        <v>3140</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1391</v>
+      </c>
+      <c r="H15" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="28" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="E16" s="3">
+        <v>2200</v>
+      </c>
+      <c r="H16" s="3">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1086</v>
+      </c>
+      <c r="F17" s="3">
+        <v>782</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H17" s="3">
+        <v>74.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="E18" s="3">
+        <v>2930</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1339</v>
+      </c>
+      <c r="H18" s="3">
+        <v>6.17</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0.87863999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="E19" s="3">
+        <v>3180</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1423</v>
+      </c>
+      <c r="G19" s="3">
+        <v>2500</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="28" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>266</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="E20" s="3">
+        <v>2360</v>
+      </c>
+      <c r="H20" s="3">
+        <v>4.3029999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-184</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-128.1</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0.65910000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="F22" s="3">
+        <v>-183.3</v>
+      </c>
+      <c r="G22" s="3">
+        <v>-88.6</v>
+      </c>
+      <c r="H22" s="3">
+        <v>6.1999999999999998E-3</v>
+      </c>
+      <c r="I22" s="3">
+        <v>1.7290000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-182.5</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-161.5</v>
+      </c>
+      <c r="H23" s="3">
+        <v>2.3E-3</v>
+      </c>
+      <c r="I23" s="3">
+        <v>2.1560000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="F24" s="3">
+        <v>-101</v>
+      </c>
+      <c r="G24" s="3">
+        <v>-34</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="F25" s="3">
+        <v>-205.1</v>
+      </c>
+      <c r="G25" s="3">
+        <v>-191.4</v>
+      </c>
+      <c r="H25" s="3">
+        <v>2.8E-3</v>
+      </c>
+      <c r="I25" s="3">
+        <v>1.042</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-78.45</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-56.55</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="I26" s="3">
+        <v>0.83899999999999997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E27" s="3">
+        <v>8960</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1083.4000000000001</v>
+      </c>
+      <c r="G27" s="3">
+        <v>2562</v>
+      </c>
+      <c r="I27" s="3">
+        <v>0.38600000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E28" s="3">
+        <v>6500</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="F30" s="3">
+        <v>-219.62</v>
+      </c>
+      <c r="G30" s="3">
+        <v>-188.1</v>
+      </c>
+      <c r="I30" s="3">
+        <v>0.82389999999999997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E31" s="3">
+        <v>7800</v>
+      </c>
+      <c r="F31" s="3">
+        <v>1538</v>
+      </c>
+      <c r="G31" s="3">
+        <v>2750</v>
+      </c>
+      <c r="I31" s="3">
+        <v>0.44400000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E32" s="3">
+        <v>5340</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1565</v>
+      </c>
+      <c r="G32" s="3">
+        <v>3414</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E33" s="3">
+        <v>5180</v>
+      </c>
+      <c r="F33" s="3">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="F34" s="3">
+        <v>-259.2</v>
+      </c>
+      <c r="G34" s="3">
+        <v>-252.77</v>
+      </c>
+      <c r="H34" s="3">
+        <v>1.6000000000000001E-4</v>
+      </c>
+      <c r="I34" s="3">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
+        <v>100</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="I35" s="3">
+        <v>4.1859999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="F36" s="3">
+        <v>-85.5</v>
+      </c>
+      <c r="G36" s="3">
+        <v>-60.4</v>
+      </c>
+      <c r="H36" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="I36" s="3">
+        <v>1.105</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="F37" s="3">
+        <v>-114.2</v>
+      </c>
+      <c r="G37" s="3">
+        <v>-85</v>
+      </c>
+      <c r="H37" s="3">
+        <v>72</v>
+      </c>
+      <c r="I37" s="3">
+        <v>0.79458000000000006</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E38" s="3">
+        <v>697</v>
+      </c>
+      <c r="F38" s="3">
+        <v>-13.4</v>
+      </c>
+      <c r="G38" s="3">
+        <v>26</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="F39" s="3">
+        <v>-222.52</v>
+      </c>
+      <c r="G39" s="3">
+        <v>-219.52</v>
+      </c>
+      <c r="H39" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="I39" s="3">
+        <v>5.2275000000000009</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E40" s="3">
+        <v>1359</v>
+      </c>
+      <c r="F40" s="3">
+        <v>-39</v>
+      </c>
+      <c r="G40" s="3">
+        <v>356.7</v>
+      </c>
+      <c r="I40" s="3">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E41" s="3">
+        <v>862</v>
+      </c>
+      <c r="F41" s="3">
+        <v>63</v>
+      </c>
+      <c r="G41" s="3">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="28" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="H42" s="3">
+        <v>36.4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="E43" s="3">
+        <v>2430</v>
+      </c>
+      <c r="F43" s="3">
+        <v>891</v>
+      </c>
+      <c r="G43" s="3">
+        <v>3336</v>
+      </c>
+      <c r="H43" s="3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="H44" s="3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="H45" s="3">
+        <v>92.3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="H46" s="3">
+        <v>34.200000000000003</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="H47" s="3">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="H48" s="3">
+        <v>33.700000000000003</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="H49" s="3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="F50" s="3">
+        <v>180</v>
+      </c>
+      <c r="G50" s="3">
+        <v>1340</v>
+      </c>
+      <c r="I50" s="3">
+        <v>3.5819999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="H51" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E52" s="3">
+        <v>2110</v>
+      </c>
+      <c r="F52" s="3">
+        <v>723</v>
+      </c>
+      <c r="H52" s="3">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="H53" s="3">
+        <v>3.8210000000000002</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="H54" s="3">
+        <v>40.799999999999997</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="H55" s="3">
+        <v>83.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="H56" s="3">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="E57" s="3">
+        <v>3580</v>
+      </c>
+      <c r="F57" s="3">
+        <v>2800</v>
+      </c>
+      <c r="G57" s="3">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="F58" s="3">
+        <v>-211.4</v>
+      </c>
+      <c r="G58" s="3">
+        <v>-195.8</v>
+      </c>
+      <c r="H58" s="3">
+        <v>1.9E-3</v>
+      </c>
+      <c r="I58" s="3">
+        <v>1.042</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="H59" s="3">
+        <v>0.112</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="F60" s="3">
+        <v>97.7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="E61" s="3">
+        <v>2532</v>
+      </c>
+      <c r="F61" s="3">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="F63" s="3">
+        <v>-77.7</v>
+      </c>
+      <c r="G63" s="3">
+        <v>-33.5</v>
+      </c>
+      <c r="H63" s="3">
+        <v>52.9</v>
+      </c>
+      <c r="I63" s="3">
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="H65" s="3">
+        <v>37.200000000000003</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="H66" s="3">
+        <v>37.4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="28" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="H67" s="3">
+        <v>21.7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="28" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="E68" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F68" s="3">
+        <v>58</v>
+      </c>
+      <c r="G68" s="3">
+        <v>251</v>
+      </c>
+      <c r="H68" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="H69" s="3">
+        <v>68.900000000000006</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="H70" s="3">
+        <v>26.1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="F71" s="3">
+        <v>-163.6</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="H71" s="3">
+        <v>5.6</v>
+      </c>
+      <c r="I71" s="3">
+        <v>0.97399999999999998</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="E72" s="3">
+        <v>1450</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-11</v>
+      </c>
+      <c r="G72" s="3">
+        <v>21</v>
+      </c>
+      <c r="H72" s="3">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="I72" s="3">
+        <v>0.83150000000000002</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="F73" s="3">
+        <v>-218.4</v>
+      </c>
+      <c r="G73" s="3">
+        <v>-183</v>
+      </c>
+      <c r="H73" s="3">
+        <v>4.3E-3</v>
+      </c>
+      <c r="I73" s="3">
+        <v>0.91800000000000004</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="F74" s="3">
+        <v>-192</v>
+      </c>
+      <c r="G74" s="3">
+        <v>-111</v>
+      </c>
+      <c r="H74" s="3">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="I74" s="3">
+        <v>14.05</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="E75" s="3">
+        <v>2940</v>
+      </c>
+      <c r="F75" s="3">
+        <v>340</v>
+      </c>
+      <c r="G75" s="3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="F76" s="3">
+        <v>44.2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="I77" s="3">
+        <v>0.128</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="I78" s="3">
+        <v>0.13500000000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="F79" s="3">
+        <v>112.8</v>
+      </c>
+      <c r="I79" s="3">
+        <v>0.7527600000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="F80" s="3">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="E81" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F81" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G81" s="3">
+        <v>2230</v>
+      </c>
+      <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
+        <v>0.83640000000000014</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="H82" s="3">
+        <v>11.28</v>
+      </c>
+      <c r="I82" s="3">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0.377</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H84" s="3">
+        <v>1.49E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2870,10 +4983,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2882,25 +4995,37 @@
     <col min="2" max="2" width="24.36328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.90625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.36328125" customWidth="1"/>
+    <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>95</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>183</v>
+        <v>226</v>
       </c>
       <c r="C1" t="s">
-        <v>184</v>
+        <v>227</v>
       </c>
       <c r="D1" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F1" t="s">
+        <v>230</v>
+      </c>
+      <c r="G1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B2" s="2">
         <v>4.1499999999999999E-11</v>
@@ -2908,37 +5033,25 @@
       <c r="C2">
         <v>295</v>
       </c>
-      <c r="D2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="D3" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B6" s="2">
         <v>4.1999999999999999E-12</v>
@@ -2946,863 +5059,73 @@
       <c r="C6">
         <v>200</v>
       </c>
-      <c r="D6" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="D7" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="D8" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="D9" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>165</v>
       </c>
-      <c r="D10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>193</v>
-      </c>
-      <c r="D11" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>167</v>
       </c>
-      <c r="D12" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>271</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G61"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.1796875" customWidth="1"/>
-    <col min="2" max="2" width="21.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7265625" customWidth="1"/>
-    <col min="7" max="7" width="18.90625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>284</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1.7999999999999999E-16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>239</v>
-      </c>
-      <c r="B3" s="2">
-        <v>6.1999999999999998E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>200</v>
-      </c>
-      <c r="B4">
-        <v>5.1E-10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>201</v>
-      </c>
-      <c r="B5">
-        <v>5.7999999999999996E-10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>202</v>
-      </c>
-      <c r="B6">
-        <v>2.2999999999999999E-9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7">
-        <v>6.2000000000000003E-10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>203</v>
-      </c>
-      <c r="B8" s="2">
-        <v>3.3E-4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>204</v>
-      </c>
-      <c r="B9" s="2">
-        <v>4.4499999999999997E-7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>205</v>
-      </c>
-      <c r="B10">
-        <v>2.9799999999999999E-8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>206</v>
-      </c>
-      <c r="B11" s="2">
-        <v>1.0999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
         <v>207</v>
       </c>
-      <c r="B12" s="2">
-        <v>3.2000000000000001E-7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>208</v>
-      </c>
-      <c r="B13" s="2">
-        <v>6.8000000000000005E-4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>209</v>
-      </c>
-      <c r="B14">
-        <v>2.3000000000000001E-11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>210</v>
-      </c>
-      <c r="B15">
-        <v>0.49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>211</v>
-      </c>
-      <c r="B16" s="2">
-        <v>7.1000000000000002E-4</v>
+        <v>224</v>
+      </c>
+      <c r="B16" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>212</v>
-      </c>
-      <c r="B17">
-        <v>2.1999999999999999E-12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>213</v>
-      </c>
-      <c r="B18" s="2">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>214</v>
-      </c>
-      <c r="B19" s="2">
-        <v>7.11E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>215</v>
-      </c>
-      <c r="B20">
-        <v>0.2</v>
-      </c>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>216</v>
-      </c>
-      <c r="B21" s="2">
-        <v>3.6999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>217</v>
-      </c>
-      <c r="B22" s="2">
-        <v>1.3E-7</v>
-      </c>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>218</v>
-      </c>
-      <c r="B23" s="2">
-        <v>1.0200000000000001E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>219</v>
-      </c>
-      <c r="B24" s="2">
-        <v>1.23E-2</v>
-      </c>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>220</v>
-      </c>
-      <c r="B25">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>221</v>
-      </c>
-      <c r="B26">
-        <v>0.25</v>
-      </c>
-      <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>222</v>
-      </c>
-      <c r="B27" s="2">
-        <v>1.7000000000000001E-10</v>
-      </c>
-      <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>223</v>
-      </c>
-      <c r="B28" s="2">
-        <v>1.8000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>224</v>
-      </c>
-      <c r="B29" s="2">
-        <v>5.6000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>225</v>
-      </c>
-      <c r="B30" s="2">
-        <v>1.7499999999999998E-5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>226</v>
-      </c>
-      <c r="B31" s="2">
-        <v>1.34E-5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>227</v>
-      </c>
-      <c r="B32" s="2">
-        <v>1.3799999999999999E-4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>228</v>
-      </c>
-      <c r="B33">
-        <v>1E-10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>229</v>
-      </c>
-      <c r="B34" s="2">
-        <v>6.2799999999999995E-5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>230</v>
-      </c>
-      <c r="B35" s="2">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
         <v>231</v>
       </c>
-      <c r="B36" s="2">
-        <v>1.1199999999999999E-3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>232</v>
-      </c>
-      <c r="B37" s="2">
-        <v>7.4399999999999998E-4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>238</v>
-      </c>
-      <c r="B38" s="2">
-        <v>1.8E-5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>233</v>
-      </c>
-      <c r="B39" s="2">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="G39" s="2"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>234</v>
-      </c>
-      <c r="B40">
-        <v>4.2E-10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>235</v>
-      </c>
-      <c r="B41">
-        <v>9.1000000000000004E-9</v>
-      </c>
-      <c r="G41" s="2"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>236</v>
-      </c>
-      <c r="B42" s="2">
-        <v>4.2000000000000002E-4</v>
-      </c>
-      <c r="G42" s="2"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>237</v>
-      </c>
-      <c r="B43" s="2">
-        <v>5.5999999999999995E-4</v>
-      </c>
-      <c r="G43" s="2"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>264</v>
-      </c>
-      <c r="B44" s="2">
-        <v>130000</v>
-      </c>
-      <c r="G44" s="2"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G45" s="2"/>
-    </row>
-    <row r="55" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G55" s="2"/>
-    </row>
-    <row r="58" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G58" s="2"/>
-    </row>
-    <row r="59" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G59" s="2"/>
-    </row>
-    <row r="60" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G60" s="2"/>
-    </row>
-    <row r="61" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G61" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C34"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="14.6328125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>257</v>
-      </c>
-      <c r="B1" t="s">
-        <v>253</v>
-      </c>
-      <c r="C1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>258</v>
-      </c>
-      <c r="B2" t="s">
-        <v>254</v>
-      </c>
-      <c r="C2">
-        <v>14300</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" t="s">
-        <v>254</v>
-      </c>
-      <c r="C3">
-        <v>5193.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" t="s">
-        <v>254</v>
-      </c>
-      <c r="C4">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" t="s">
-        <v>254</v>
-      </c>
-      <c r="C5">
-        <v>1030.0999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6" t="s">
-        <v>255</v>
-      </c>
-      <c r="C6">
-        <v>3582</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>240</v>
-      </c>
-      <c r="B7" t="s">
-        <v>256</v>
-      </c>
-      <c r="C7">
-        <v>2440</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>259</v>
-      </c>
-      <c r="B8" t="s">
-        <v>255</v>
-      </c>
-      <c r="C8">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" t="s">
-        <v>254</v>
-      </c>
-      <c r="C9">
-        <v>2156</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>241</v>
-      </c>
-      <c r="B10" t="s">
-        <v>254</v>
-      </c>
-      <c r="C10">
-        <v>1729</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>242</v>
-      </c>
-      <c r="B11" t="s">
-        <v>254</v>
-      </c>
-      <c r="C11">
-        <v>1511</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>243</v>
-      </c>
-      <c r="B12" t="s">
-        <v>255</v>
-      </c>
-      <c r="C12">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>217</v>
-      </c>
-      <c r="B13" t="s">
-        <v>254</v>
-      </c>
-      <c r="C13">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>260</v>
-      </c>
-      <c r="B14" t="s">
-        <v>254</v>
-      </c>
-      <c r="C14">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>261</v>
-      </c>
-      <c r="B15" t="s">
-        <v>254</v>
-      </c>
-      <c r="C15">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" t="s">
-        <v>254</v>
-      </c>
-      <c r="C16">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>244</v>
-      </c>
-      <c r="B17" t="s">
-        <v>254</v>
-      </c>
-      <c r="C17">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>73</v>
-      </c>
-      <c r="B18" t="s">
-        <v>255</v>
-      </c>
-      <c r="C18">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>262</v>
-      </c>
-      <c r="B19" t="s">
-        <v>254</v>
-      </c>
-      <c r="C19">
-        <v>823.9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>67</v>
-      </c>
-      <c r="B20" t="s">
-        <v>255</v>
-      </c>
-      <c r="C20">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>245</v>
-      </c>
-      <c r="B21" t="s">
-        <v>254</v>
-      </c>
-      <c r="C21">
-        <v>659.1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>169</v>
-      </c>
-      <c r="B22" t="s">
-        <v>254</v>
-      </c>
-      <c r="C22">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" t="s">
-        <v>254</v>
-      </c>
-      <c r="C23">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>246</v>
-      </c>
-      <c r="B24" t="s">
-        <v>255</v>
-      </c>
-      <c r="C24">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>159</v>
-      </c>
-      <c r="B25" t="s">
-        <v>255</v>
-      </c>
-      <c r="C25">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>247</v>
-      </c>
-      <c r="B26" t="s">
-        <v>255</v>
-      </c>
-      <c r="C26">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>248</v>
-      </c>
-      <c r="B27" t="s">
-        <v>255</v>
-      </c>
-      <c r="C27">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>249</v>
-      </c>
-      <c r="B28" t="s">
-        <v>256</v>
-      </c>
-      <c r="C28">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>250</v>
-      </c>
-      <c r="B29" t="s">
-        <v>255</v>
-      </c>
-      <c r="C29">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>251</v>
-      </c>
-      <c r="B30" t="s">
-        <v>255</v>
-      </c>
-      <c r="C30">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>252</v>
-      </c>
-      <c r="B31" t="s">
-        <v>255</v>
-      </c>
-      <c r="C31">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>57</v>
-      </c>
-      <c r="B32" t="s">
-        <v>254</v>
-      </c>
-      <c r="C32">
-        <v>1850</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>57</v>
-      </c>
-      <c r="B33" t="s">
-        <v>256</v>
-      </c>
-      <c r="C33">
-        <v>4186</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>57</v>
-      </c>
-      <c r="B34" t="s">
-        <v>255</v>
-      </c>
-      <c r="C34">
-        <v>2050</v>
+      <c r="E17">
+        <v>595</v>
+      </c>
+      <c r="F17">
+        <f>E17*G17</f>
+        <v>30940</v>
+      </c>
+      <c r="G17">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Science.xlsx
+++ b/Science.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="periodic_table" sheetId="3" r:id="rId1"/>
@@ -13,15 +13,15 @@
     <sheet name="chemical_equation" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">chemical_bond!$A$1:$B$80</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">molecule!$A$1:$I$84</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">chemical_bond!$A$1:$B$105</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">molecule!$A$1:$I$79</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="453">
   <si>
     <t>C=O</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -614,855 +614,1058 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'S-S':1/2}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NH3+C=HCN+H2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S+O2=SO2</t>
+  </si>
+  <si>
+    <t>NH3+H2O+CO2=NH4HCO3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P2O5</t>
+  </si>
+  <si>
+    <t>SO2</t>
+  </si>
+  <si>
+    <t>NH4HCO3</t>
+  </si>
+  <si>
+    <t>{'P=O':4,'P-O':2}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'S=O':2}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'N-H':4,'N-O':1,'C-O':2,'C=O':1,'H-O':1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enzyme</t>
+  </si>
+  <si>
+    <t>Nitrogen Dioxide</t>
+  </si>
+  <si>
+    <t>Nitric Oxide</t>
+  </si>
+  <si>
+    <t>Carbon Dioxide</t>
+  </si>
+  <si>
+    <t>Sodium Chloride</t>
+  </si>
+  <si>
+    <t>Potassium Chloride</t>
+  </si>
+  <si>
+    <t>Silicon Dioxide</t>
+  </si>
+  <si>
+    <t>Hydrogen Cyanide</t>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C+O2=CO2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2*H2+O2=2*H2O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH4+O2=CO2+2*H2O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2*C+O2=2*CO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2*CO+O2=2*CO2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P4+5*O2=2*P2O5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N2+O2=2*NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4*NH3+3*O2=2*N2+6*H2O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>melting_point</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boiling_point</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H2S</t>
+  </si>
+  <si>
+    <t>C2H5OH</t>
+  </si>
+  <si>
+    <t>C2H2</t>
+  </si>
+  <si>
+    <t>CF4</t>
+  </si>
+  <si>
+    <t>Fe</t>
+  </si>
+  <si>
+    <t>Cu</t>
+  </si>
+  <si>
+    <t>Ag</t>
+  </si>
+  <si>
+    <t>Hg</t>
+  </si>
+  <si>
+    <t>Pt</t>
+  </si>
+  <si>
+    <t>Au</t>
+  </si>
+  <si>
+    <t>Pb</t>
+  </si>
+  <si>
+    <t>ATP+H2O=ADP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N-H..O</t>
+  </si>
+  <si>
+    <t>NH3+4*H2O=NH3.4H2O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>solubility</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'H+','OH-'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'Na+','Cl-'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'K+','Cl-'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'H+','CN-'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D(+)-Cellobiose</t>
+  </si>
+  <si>
+    <t>C12H22011</t>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ea(kJ/mol)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Km(mmol/L)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kcat/Km(L/(mmol*s))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kcat(1/s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NADP+H2O=NADPH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>specific_heat_capacity kJ/(mol*K)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Li</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Li-Li</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ti</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ni</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ga</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>As</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Au</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(NH4)3PO4</t>
+  </si>
+  <si>
+    <t>N2O</t>
+  </si>
+  <si>
+    <t>CaCl2</t>
+  </si>
+  <si>
+    <t>Ca(HCO3)2</t>
+  </si>
+  <si>
+    <t>CaF2</t>
+  </si>
+  <si>
+    <t>CaHPO4</t>
+  </si>
+  <si>
+    <t>Ca(OH)2</t>
+  </si>
+  <si>
+    <t>CaC2O4</t>
+  </si>
+  <si>
+    <t>Ca3(PO4)2</t>
+  </si>
+  <si>
+    <t>K2CO3</t>
+  </si>
+  <si>
+    <t>KClO3</t>
+  </si>
+  <si>
+    <t>KHCO3</t>
+  </si>
+  <si>
+    <t>K2HPO4</t>
+  </si>
+  <si>
+    <t>KOH</t>
+  </si>
+  <si>
+    <t>K2C2O4</t>
+  </si>
+  <si>
+    <t>K3PO4</t>
+  </si>
+  <si>
+    <t>Li2CO3</t>
+  </si>
+  <si>
+    <t>AlCl3</t>
+  </si>
+  <si>
+    <t>Al(OH)3</t>
+  </si>
+  <si>
+    <t>NH4Cl</t>
+  </si>
+  <si>
+    <t>(NH4)2CO3</t>
+  </si>
+  <si>
+    <t>NH4H2PO4</t>
+  </si>
+  <si>
+    <t>CaCO3</t>
+  </si>
+  <si>
+    <t>He</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'C-H':6,'C-O':1,'C-C':1,'H-O':1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH3CH3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'C-H':6,'C-C':1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'C-H':2,'C3C':1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ionization</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>density</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3*NO2+H2O=2*HNO3+NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HCl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MgO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Al2O3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CaO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fe2O3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fe3O4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CuO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Na</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'N-H':8,'N-O':2,'C-O':2,'C=O':1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'NH4+','CO3-'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Argentum</t>
+  </si>
+  <si>
+    <t>Aluminium</t>
+  </si>
+  <si>
+    <t>{'Al-O':2,'Al=O':2}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'Al3+','OH-'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'Al-O':3,'H-O':3}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'Al3+','Cl-'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AlF3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>{'Al-F':3}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'Al-Cl':3}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'Al3+','F-'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Welding Gas</t>
+  </si>
+  <si>
+    <t>{'Ca=O':1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'Ca-O':2,'C-O':4,'C=O':2,'H-O':2}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'Ca2+','HCO3-','CO3^2-','H+'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'Ca-O':2,'H-O':2}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'Ca2+','OH-'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Calcium Phosphate Tribasic</t>
+  </si>
+  <si>
+    <t>{'Ca-O':6,'P-O':6,'P=O':2}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'Ca2+','PO4^3-'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'Ca2+','C2O4^2-'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'Ca-O':2,'C-O':2,'C=O':2}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'Ca-Cl':2}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'Ca2+','Cl-'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'Ca2+','CO3^2-'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fluorspar</t>
+  </si>
+  <si>
+    <t>{'Ca-F':2}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'Ca2+','F-'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'Ca-O':2,'P-O':3,'P=O':1,'H-O':1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'Ca2+','PO4^3-','HPO4^2-','H+'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'C-F':4}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'Cu=O':1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'Fe-O':6}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'Fe-O':8}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'S-H':2}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'H+','S2-'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'Cl-H':1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'H+','Cl-'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Helium</t>
+  </si>
+  <si>
+    <t>Mercury</t>
+  </si>
+  <si>
+    <t>Potassium</t>
+  </si>
+  <si>
+    <t>Potassium Oxalate Monohydrate</t>
+  </si>
+  <si>
+    <t>{'K+','C2O4^2-'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'K-O':2,'C-O':2,'C=O':2,'C-C':1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'Ca-O':2,'C-O':2,'C=O':2,'C-C':1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'K-O':2,'C-O':2,'C=O':2}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'K+','CO3^2-'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'K-O':2,'P-O':3,'P=O':1,'H-O':1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'K+','PO4^3-','HPO4^2-','H+'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'K-O':3,'P-O':3,'P=O':1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'K+','PO4^3-'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Potassium Chlorate</t>
+  </si>
+  <si>
+    <t>{'K-O':1,'Cl-O':1,'Cl=O':2}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'K+','ClO3-'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'K+','HCO3-','CO3^2-','H+'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'K-O':1,'H-O':1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'K+','OH-'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'Li-O':2,'C-O':2,'C=O':2}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'Li+','CO3^2-'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Magnesium</t>
+  </si>
+  <si>
+    <t>{'Mg=O':1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'N3N':1,'N-O':1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sodium</t>
+  </si>
+  <si>
+    <t>Sodium Carbonate</t>
+  </si>
+  <si>
+    <t>{'Na-O':2,'C-O':2,'C=O':2}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'Na+','CO3^2-'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Na2CO3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NaHCO3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sodium Bicarbonate</t>
+  </si>
+  <si>
+    <t>{'K-O':1,'C-O':2,'C=O':1,'H-O':1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'Na-O':1,'C-O':2,'C=O':1,'H-O':1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'Na+','HCO3-','CO3^2-','H+'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'N-H':4,'N-Cl':1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'NH4+','Cl-'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'N-H':4,'N-O':1,'P-O':3,'P=O':1,'H-O':2}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'NH4+','HCO3-','CO3^2-','H+'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crystalammonia</t>
+  </si>
+  <si>
+    <t>{'NH4+','PO4^3-','H2PO4-','HPO4^2-','H+'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'N-H':12,'N-O':3,'P-O':3,'P=O':1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'NH4+','PO4^3-'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H3PO4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'H-O':3,'P-O':3,'P=O':1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'H+','PO4^3-','H2PO4-','HPO4^2-'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Platinum</t>
+  </si>
+  <si>
+    <t>{'Si-Si':1/4}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aluminum Oxide</t>
+  </si>
+  <si>
+    <t>Aluminium Hydroxide</t>
+  </si>
+  <si>
+    <t>Aluminium Chloride</t>
+  </si>
+  <si>
+    <t>Aluminium Fluoride</t>
+  </si>
+  <si>
+    <t>Ethanol</t>
+  </si>
+  <si>
+    <t>Calcium Oxide</t>
+  </si>
+  <si>
+    <t>Calcium Bicarbonate</t>
+  </si>
+  <si>
+    <t>Calcium Hydroxide</t>
+  </si>
+  <si>
+    <t>Calcium Oxalate</t>
+  </si>
+  <si>
+    <t>Calcium Chloride</t>
+  </si>
+  <si>
+    <t>Calcium Carbonate</t>
+  </si>
+  <si>
+    <t>Calcium Hydrogen Phosphate</t>
+  </si>
+  <si>
+    <t>Carbon Tetrafluoride</t>
+  </si>
+  <si>
+    <t>Ethane</t>
+  </si>
+  <si>
+    <t>Carbon Monoxide</t>
+  </si>
+  <si>
+    <t>Copper</t>
+  </si>
+  <si>
+    <t>Cupric Oxide</t>
+  </si>
+  <si>
+    <t>Iron</t>
+  </si>
+  <si>
+    <t>Ferric Oxide</t>
+  </si>
+  <si>
+    <t>Ferroferric Oxide</t>
+  </si>
+  <si>
+    <t>Hydrogen Sulfide</t>
+  </si>
+  <si>
+    <t>Hydrogen Chloride</t>
+  </si>
+  <si>
+    <t>Phosphoric Acid</t>
+  </si>
+  <si>
+    <t>Potassium Carbonate</t>
+  </si>
+  <si>
+    <t>Dipotassium Hydrogenphosphat</t>
+  </si>
+  <si>
+    <t>Tripotassium Phosphate</t>
+  </si>
+  <si>
+    <t>Potassium Bicarbonate</t>
+  </si>
+  <si>
+    <t>Potassium Hydroxide</t>
+  </si>
+  <si>
+    <t>Lithium</t>
+  </si>
+  <si>
+    <t>Lithium Carbonate</t>
+  </si>
+  <si>
+    <t>Magnesium Oxide</t>
+  </si>
+  <si>
+    <t>Nitrous Oxide</t>
+  </si>
+  <si>
+    <t>Ammonium Chloride</t>
+  </si>
+  <si>
+    <t>Ammonium Dihydrogen Phosphate</t>
+  </si>
+  <si>
+    <t>Ammonium Bicarbonate</t>
+  </si>
+  <si>
+    <t>Ammonium Orthophosphate</t>
+  </si>
+  <si>
+    <t>Phosphorus Pentoxide</t>
+  </si>
+  <si>
+    <t>Lead</t>
+  </si>
+  <si>
     <t>Sulfur</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'S-S':1/2}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NH3+C=HCN+H2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S+O2=SO2</t>
-  </si>
-  <si>
-    <t>NH3+H2O+CO2=NH4HCO3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P2O5</t>
-  </si>
-  <si>
-    <t>SO2</t>
-  </si>
-  <si>
-    <t>NH4HCO3</t>
-  </si>
-  <si>
-    <t>{'P=O':4,'P-O':2}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'S=O':2}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'N-H':4,'N-O':1,'C-O':2,'C=O':1,'H-O':1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enzyme</t>
-  </si>
-  <si>
-    <t>Nitrogen Dioxide</t>
-  </si>
-  <si>
-    <t>Nitric Oxide</t>
-  </si>
-  <si>
-    <t>Carbon Dioxide</t>
-  </si>
-  <si>
-    <t>Sodium Chloride</t>
-  </si>
-  <si>
-    <t>Potassium Chloride</t>
-  </si>
-  <si>
-    <t>Silicon Dioxide</t>
-  </si>
-  <si>
-    <t>Hydrogen Cyanide</t>
+  </si>
+  <si>
+    <t>Silicon</t>
+  </si>
+  <si>
+    <t>Sulfur Dioxide</t>
   </si>
   <si>
     <t>None</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>C+O2=CO2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2*H2+O2=2*H2O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CH4+O2=CO2+2*H2O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2*C+O2=2*CO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2*CO+O2=2*CO2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P4+5*O2=2*P2O5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N2+O2=2*NO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4*NH3+3*O2=2*N2+6*H2O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>melting_point</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boiling_point</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>69.3+0.41(G+C)</t>
-  </si>
-  <si>
-    <t>DNA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>H2S</t>
-  </si>
-  <si>
-    <t>C2H5OH</t>
-  </si>
-  <si>
-    <t>C2H2</t>
-  </si>
-  <si>
-    <t>CF4</t>
-  </si>
-  <si>
-    <t>Fe</t>
-  </si>
-  <si>
-    <t>Cu</t>
-  </si>
-  <si>
-    <t>Ag</t>
-  </si>
-  <si>
-    <t>Hg</t>
-  </si>
-  <si>
-    <t>Pt</t>
-  </si>
-  <si>
-    <t>Au</t>
-  </si>
-  <si>
-    <t>Pb</t>
-  </si>
-  <si>
-    <t>ATP+H2O=ADP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>~P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C2H4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ethylene</t>
+  </si>
+  <si>
+    <t>{'C-H':4,'C=C':1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ammonia Solution</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'NH4+','OH-'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NH3.4H2O</t>
   </si>
   <si>
     <t>N..H-O</t>
-  </si>
-  <si>
-    <t>{'N..H-O':1,'N-H..O':3}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N-H..O</t>
-  </si>
-  <si>
-    <t>NH3.4H2O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NH3+4*H2O=NH3.4H2O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>solubility</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>None</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'H+','OH-'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'Na+','Cl-'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'K+','Cl-'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>None</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>None</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'NH4+','HCO3-','CO3^2-'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'NH4+','OH-'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'H+','CN-'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D(+)-Cellobiose</t>
-  </si>
-  <si>
-    <t>C12H22011</t>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ea(kJ/mol)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Km(mmol/L)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kcat/Km(L/(mmol*s))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kcat(1/s)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NADP+H2O=NADPH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>specific_heat_capacity kJ/(mol*K)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Li</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Li-Li</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lithium</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'Li=Li':0.5}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ti</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ni</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ga</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>As</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Xe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Au</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>U</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Carbon Monoxide</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DNA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>碳酸铵</t>
-  </si>
-  <si>
-    <t>氯化铵</t>
-  </si>
-  <si>
-    <t>磷酸二氢铵</t>
-  </si>
-  <si>
-    <t>磷酸铵</t>
-  </si>
-  <si>
-    <t>(NH4)3PO4</t>
-  </si>
-  <si>
-    <t>一氧化二氮</t>
-  </si>
-  <si>
-    <t>N2O</t>
-  </si>
-  <si>
-    <t>CaCl2</t>
-  </si>
-  <si>
-    <t>Ca(HCO3)2</t>
-  </si>
-  <si>
-    <t>CaF2</t>
-  </si>
-  <si>
-    <t>CaHPO4</t>
-  </si>
-  <si>
-    <t>Ca(OH)2</t>
-  </si>
-  <si>
-    <t>CaC2O4</t>
-  </si>
-  <si>
-    <t>Ca3(PO4)2</t>
-  </si>
-  <si>
-    <t>K2CO3</t>
-  </si>
-  <si>
-    <t>氯酸钾</t>
-  </si>
-  <si>
-    <t>KClO3</t>
-  </si>
-  <si>
-    <t>碳酸氢钾</t>
-  </si>
-  <si>
-    <t>KHCO3</t>
-  </si>
-  <si>
-    <t>磷酸一氢钾</t>
-  </si>
-  <si>
-    <t>K2HPO4</t>
-  </si>
-  <si>
-    <t>氢氧化钾</t>
-  </si>
-  <si>
-    <t>KOH</t>
-  </si>
-  <si>
-    <t>K2C2O4</t>
-  </si>
-  <si>
-    <t>磷酸钾</t>
-  </si>
-  <si>
-    <t>K3PO4</t>
-  </si>
-  <si>
-    <t>乙酸锂</t>
-  </si>
-  <si>
-    <t>LiC2H3O2</t>
-  </si>
-  <si>
-    <t>碳酸锂</t>
-  </si>
-  <si>
-    <t>Li2CO3</t>
-  </si>
-  <si>
-    <t>氯化锂</t>
-  </si>
-  <si>
-    <t>LiCl</t>
-  </si>
-  <si>
-    <t>氢氧化锂</t>
-  </si>
-  <si>
-    <t>LiOH</t>
-  </si>
-  <si>
-    <t>草酸锂</t>
-  </si>
-  <si>
-    <t>Li2C2O4</t>
-  </si>
-  <si>
-    <t>磷酸锂</t>
-  </si>
-  <si>
-    <t>Li3PO4</t>
-  </si>
-  <si>
-    <t>AlCl3</t>
-  </si>
-  <si>
-    <t>Al(OH)3</t>
-  </si>
-  <si>
-    <t>NH4Cl</t>
-  </si>
-  <si>
-    <t>(NH4)2CO3</t>
-  </si>
-  <si>
-    <t>NH4H2PO4</t>
-  </si>
-  <si>
-    <t>(NH4)2HPO4</t>
-  </si>
-  <si>
-    <t>CaCO3</t>
-  </si>
-  <si>
-    <t>He</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>None</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ethanol</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Inf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'C-H':6,'C-O':1,'C-C':1,'H-O':1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CH3CH3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'C-H':6,'C-C':1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'C-H':2,'C3C':1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ethane</t>
-  </si>
-  <si>
-    <t>ionization</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>density</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Inf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3*NO2+H2O=2*HNO3+NO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HCl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t> -151.8</t>
-  </si>
-  <si>
-    <t>NaCO3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>碳酸钠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MgO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Al2O3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CaO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fe2O3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fe3O4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CuO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Na</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'N-H':8,'N-O':2,'C-O':2,'C=O':1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>磷酸氢铵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'NH4+','CO3-'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Argentum</t>
-  </si>
-  <si>
-    <t>Aluminium</t>
-  </si>
-  <si>
-    <t>Aluminum oxide</t>
-  </si>
-  <si>
-    <t>{'Al-O':2,'Al=O':2}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'Al-Al':0.5}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'Ag-Ag':0.5}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'Al3+','OH-'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Aluminium hydroxide</t>
-  </si>
-  <si>
-    <t>{'Al-O':3,'H-O':3}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aluminium chloride</t>
-  </si>
-  <si>
-    <t>{'Al3+','Cl-'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AlF3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gold</t>
-  </si>
-  <si>
-    <t>{'Au-Au':0.5}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'Al-F':3}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'Al-Cl':3}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'Al3+','F-'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Welding Gas</t>
-  </si>
-  <si>
-    <t>Calcium oxide</t>
-  </si>
-  <si>
-    <t>{'Ca=O':1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Calcium bicarbonate</t>
-  </si>
-  <si>
-    <t>{'Ca-O':2,'C-O':4,'C=O':2,'H-O':2}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'Ca2+','HCO3-','CO3^2-','H+'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>calcium hydroxide</t>
-  </si>
-  <si>
-    <t>{'Ca-O':2,'H-O':2}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'Ca2+','OH-'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Calcium Phosphate Tribasic</t>
-  </si>
-  <si>
-    <t>{'Ca-O':6,'P-O':6,'P=O':2}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'Ca2+','PO4^3-'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>calcium oxalate</t>
-  </si>
-  <si>
-    <t>{'Ca2+','C2O4^2-'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'Ca-O':2,'C-O':2,'C=O':2}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Calcium chloride</t>
-  </si>
-  <si>
-    <t>{'Ca-Cl':2}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'Ca2+','Cl-'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Calcium carbonate</t>
-  </si>
-  <si>
-    <t>{'Ca2+','CO3^2-'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fluorspar</t>
-  </si>
-  <si>
-    <t>{'Ca-F':2}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'Ca2+','F-'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Calcium hydrogen phosphate</t>
-  </si>
-  <si>
-    <t>{'Ca-O':2,'P-O':3,'P=O':1,'H-O':1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'Ca2+','PO4^3-','HPO4^2-','H+'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Carbon tetrafluoride</t>
-  </si>
-  <si>
-    <t>{'C-F':4}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>copper</t>
-  </si>
-  <si>
-    <t>{'Cu-Cu':0.5}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cupric oxide</t>
-  </si>
-  <si>
-    <t>{'Cu=O':1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iron</t>
-  </si>
-  <si>
-    <t>{'Fe-Fe':1/3}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ferric oxide</t>
-  </si>
-  <si>
-    <t>{'Fe-O':6}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ferroferric oxide</t>
-  </si>
-  <si>
-    <t>{'Fe-O':8}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hydrogen sulfide</t>
-  </si>
-  <si>
-    <t>{'S-H':2}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'H+','S2-'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hydrogen chloride</t>
-  </si>
-  <si>
-    <t>{'Cl-H':1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'H+','Cl-'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Helium</t>
-  </si>
-  <si>
-    <t>Mercury</t>
-  </si>
-  <si>
-    <t>Potassium</t>
-  </si>
-  <si>
-    <t>Potassium Oxalate Monohydrate</t>
-  </si>
-  <si>
-    <t>{'K+','C2O4^2-'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'K-O':2,'C-O':2,'C=O':2,'C-C':1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'Ca-O':2,'C-O':2,'C=O':2,'C-C':1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Potassium carbonate</t>
-  </si>
-  <si>
-    <t>{'K-O':2,'C-O':2,'C=O':2}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'K+','CO3^2-'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'N-H':3,'N-H..O':3,'N..H-O':1,'H-O':8}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Al-O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Al=O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Al-Cl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Al-F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ca=O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ca-O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ca-F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cu=O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fe-O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K-O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Li-O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mg=O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Na-O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N-Cl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F-O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S-F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S-Cl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N-F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P=S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Si-N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Si-S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B-B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B-Cl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Si-P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N-P</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1486,12 +1689,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1506,16 +1715,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1822,7 +2041,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
@@ -2128,7 +2347,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -2142,7 +2361,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -2156,7 +2375,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -2170,7 +2389,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -2184,7 +2403,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="B26">
         <v>25</v>
@@ -2226,7 +2445,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="B29">
         <v>28</v>
@@ -2268,7 +2487,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="B32">
         <v>31</v>
@@ -2282,7 +2501,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="B33">
         <v>32</v>
@@ -2296,7 +2515,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="B34">
         <v>33</v>
@@ -2338,7 +2557,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="B37">
         <v>36</v>
@@ -2366,7 +2585,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="B39">
         <v>47</v>
@@ -2380,7 +2599,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="B40">
         <v>54</v>
@@ -2422,7 +2641,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="B43">
         <v>78</v>
@@ -2436,7 +2655,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B44">
         <v>79</v>
@@ -2450,7 +2669,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="B45">
         <v>80</v>
@@ -2464,7 +2683,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B46">
         <v>82</v>
@@ -2478,7 +2697,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="B47">
         <v>92</v>
@@ -2499,10 +2718,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B80"/>
+  <dimension ref="A1:B105"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2521,60 +2740,55 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>208</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="B2" s="8"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B3">
-        <v>644</v>
-      </c>
+        <v>429</v>
+      </c>
+      <c r="B3" s="8"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B4">
-        <v>515</v>
-      </c>
+        <v>430</v>
+      </c>
+      <c r="B4" s="8"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>121</v>
-      </c>
-      <c r="B5">
-        <v>193.87</v>
-      </c>
+        <v>431</v>
+      </c>
+      <c r="B5" s="8"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>123</v>
+        <v>428</v>
       </c>
       <c r="B6">
-        <v>365.7</v>
+        <v>511</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>126</v>
+        <v>449</v>
       </c>
       <c r="B7">
-        <v>235</v>
+        <v>293</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>450</v>
       </c>
       <c r="B8">
-        <v>682</v>
+        <v>456</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B9">
         <v>644</v>
@@ -2582,570 +2796,760 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="B10">
-        <v>803</v>
+        <v>515</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="B11">
-        <v>577</v>
+        <v>193.87</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="B12">
-        <v>812</v>
+        <v>365.7</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B13">
-        <v>937</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>129</v>
+        <v>7</v>
       </c>
       <c r="B14">
-        <v>393</v>
+        <v>682</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B15">
-        <v>284</v>
+        <v>644</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B16">
-        <v>368</v>
+        <v>803</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="B17">
-        <v>339</v>
+        <v>577</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>114</v>
+        <v>36</v>
       </c>
       <c r="B18">
-        <v>452</v>
+        <v>812</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>120</v>
       </c>
       <c r="B19">
-        <v>431</v>
+        <v>937</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>117</v>
-      </c>
-      <c r="B20">
-        <v>232</v>
-      </c>
+        <v>432</v>
+      </c>
+      <c r="B20" s="8"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21">
-        <v>242.58</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="B21" s="8"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22">
-        <v>431.8</v>
-      </c>
+        <v>433</v>
+      </c>
+      <c r="B22" s="8"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B23">
-        <v>272</v>
+        <v>393</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B24">
-        <v>331</v>
+        <v>284</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="B25">
-        <v>335</v>
+        <v>368</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="B26">
-        <v>305</v>
+        <v>339</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="B27">
-        <v>272</v>
+        <v>452</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>136</v>
+        <v>8</v>
       </c>
       <c r="B28">
-        <v>347</v>
+        <v>431</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1</v>
+        <v>117</v>
       </c>
       <c r="B29">
-        <v>156.9</v>
+        <v>232</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B30">
-        <v>568.6</v>
+        <v>242.58</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B31">
-        <v>436</v>
+        <v>431.8</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>125</v>
       </c>
       <c r="B32">
-        <v>498.7</v>
+        <v>272</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B33">
-        <v>298.7</v>
+        <v>331</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>122</v>
+        <v>34</v>
       </c>
       <c r="B34">
-        <v>151</v>
+        <v>335</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B35">
-        <v>380</v>
+        <v>305</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>17</v>
+        <v>131</v>
       </c>
       <c r="B36">
-        <v>433</v>
+        <v>272</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>18</v>
+        <v>136</v>
       </c>
       <c r="B37">
-        <v>498</v>
+        <v>347</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>138</v>
+        <v>435</v>
       </c>
       <c r="B38">
-        <v>325</v>
+        <v>269</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>139</v>
+        <v>1</v>
       </c>
       <c r="B39">
-        <v>469</v>
+        <v>156.9</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>140</v>
+        <v>4</v>
       </c>
       <c r="B40">
-        <v>238</v>
+        <v>568.6</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>141</v>
+        <v>442</v>
       </c>
       <c r="B41">
-        <v>345</v>
+        <v>190</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>234</v>
-      </c>
-      <c r="B42">
-        <v>513.29999999999995</v>
-      </c>
+        <v>436</v>
+      </c>
+      <c r="B42" s="8"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>209</v>
+        <v>16</v>
       </c>
       <c r="B43">
-        <v>29</v>
+        <v>436</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B44">
-        <v>418</v>
+        <v>498.7</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>28</v>
+        <v>124</v>
       </c>
       <c r="B45">
-        <v>607</v>
+        <v>298.7</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>37</v>
+        <v>122</v>
       </c>
       <c r="B46">
-        <v>946</v>
+        <v>151</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B47">
-        <v>367</v>
+        <v>380</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B48">
-        <v>412</v>
+        <v>433</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B49">
-        <v>519</v>
+        <v>498</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>12</v>
+        <v>138</v>
       </c>
       <c r="B50">
-        <v>186</v>
+        <v>325</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>133</v>
-      </c>
-      <c r="B51">
-        <v>304</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="B51" s="8"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>9</v>
+        <v>139</v>
       </c>
       <c r="B52">
-        <v>431</v>
+        <v>469</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>211</v>
+        <v>140</v>
       </c>
       <c r="B53">
-        <v>8</v>
+        <v>238</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>38</v>
+        <v>141</v>
       </c>
       <c r="B54">
-        <v>193</v>
+        <v>345</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>27</v>
+        <v>226</v>
       </c>
       <c r="B55">
-        <v>176</v>
+        <v>513.29999999999995</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>3</v>
-      </c>
-      <c r="B56">
-        <v>498</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="B56" s="8"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>13</v>
-      </c>
-      <c r="B57">
-        <v>146</v>
-      </c>
+        <v>439</v>
+      </c>
+      <c r="B57" s="8"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>30</v>
+        <v>426</v>
       </c>
       <c r="B58">
-        <v>560</v>
+        <v>29</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>143</v>
+        <v>26</v>
       </c>
       <c r="B59">
-        <v>382</v>
+        <v>418</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>134</v>
+        <v>28</v>
       </c>
       <c r="B60">
-        <v>272</v>
+        <v>607</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>144</v>
+        <v>37</v>
       </c>
       <c r="B61">
-        <v>346</v>
+        <v>946</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>32</v>
+        <v>132</v>
       </c>
       <c r="B62">
-        <v>319</v>
+        <v>367</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="B63">
-        <v>490</v>
+        <v>412</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="B64">
-        <v>328</v>
+        <v>519</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B65">
-        <v>410</v>
+        <v>186</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>14</v>
+        <v>133</v>
       </c>
       <c r="B66">
-        <v>209</v>
+        <v>304</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>145</v>
-      </c>
-      <c r="B67">
-        <v>428</v>
-      </c>
+        <v>440</v>
+      </c>
+      <c r="B67" s="8"/>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>146</v>
+        <v>9</v>
       </c>
       <c r="B68">
-        <v>494</v>
+        <v>431</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>147</v>
+        <v>206</v>
       </c>
       <c r="B69">
-        <v>319</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>149</v>
+        <v>38</v>
+      </c>
+      <c r="B70">
+        <v>193</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>150</v>
+        <v>27</v>
+      </c>
+      <c r="B71">
+        <v>176</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>151</v>
+        <v>452</v>
       </c>
       <c r="B72">
-        <v>314</v>
+        <v>177</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>19</v>
+        <v>441</v>
       </c>
       <c r="B73">
-        <v>339</v>
+        <v>313</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>21</v>
+        <v>445</v>
       </c>
       <c r="B74">
-        <v>360</v>
+        <v>283</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="B75">
-        <v>552</v>
+        <v>498</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B76">
-        <v>377</v>
+        <v>146</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B77">
-        <v>460</v>
+        <v>560</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>25</v>
+        <v>143</v>
       </c>
       <c r="B78">
-        <v>176</v>
+        <v>382</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="B79">
-        <v>364</v>
+        <v>272</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>144</v>
+      </c>
+      <c r="B80">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>32</v>
+      </c>
+      <c r="B81">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>31</v>
+      </c>
+      <c r="B82">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>29</v>
+      </c>
+      <c r="B83">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>15</v>
+      </c>
+      <c r="B84">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>14</v>
+      </c>
+      <c r="B85">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>446</v>
+      </c>
+      <c r="B86">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>145</v>
+      </c>
+      <c r="B87">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>146</v>
+      </c>
+      <c r="B88">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>147</v>
+      </c>
+      <c r="B89">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>149</v>
+      </c>
+      <c r="B90">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>150</v>
+      </c>
+      <c r="B91">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>151</v>
+      </c>
+      <c r="B92">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>19</v>
+      </c>
+      <c r="B93">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>21</v>
+      </c>
+      <c r="B94">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>22</v>
+      </c>
+      <c r="B95">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>23</v>
+      </c>
+      <c r="B96">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>24</v>
+      </c>
+      <c r="B97">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>451</v>
+      </c>
+      <c r="B98">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>447</v>
+      </c>
+      <c r="B99">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>448</v>
+      </c>
+      <c r="B100">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>25</v>
+      </c>
+      <c r="B101">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>443</v>
+      </c>
+      <c r="B102">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>444</v>
+      </c>
+      <c r="B103">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>148</v>
+      </c>
+      <c r="B104">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
         <v>20</v>
       </c>
-      <c r="B80">
+      <c r="B105">
         <v>268</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B80">
-    <sortState ref="A2:B80">
-      <sortCondition ref="A1:A80"/>
+  <autoFilter ref="A1:B105">
+    <sortState ref="A2:B88">
+      <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3156,68 +3560,68 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I84"/>
+  <dimension ref="A1:I79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.08984375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="11.1796875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="21.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.7265625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.54296875" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.90625" style="3" customWidth="1"/>
     <col min="6" max="6" width="15.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.6328125" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.36328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.36328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.26953125" style="3" customWidth="1"/>
     <col min="10" max="16384" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:9" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>191</v>
+      <c r="B1" s="4" t="s">
+        <v>190</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>80</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="F1" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>232</v>
+      <c r="H1" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>330</v>
+        <v>199</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>290</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>335</v>
+        <v>181</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E2" s="3">
         <v>10490</v>
@@ -3228,6 +3632,7 @@
       <c r="G2" s="3">
         <v>961.78</v>
       </c>
+      <c r="H2" s="6"/>
       <c r="I2" s="3">
         <v>0.23300000000000001</v>
       </c>
@@ -3236,14 +3641,14 @@
       <c r="A3" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>331</v>
+      <c r="B3" s="4" t="s">
+        <v>291</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>334</v>
+        <v>181</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E3" s="3">
         <v>2700</v>
@@ -3254,22 +3659,23 @@
       <c r="G3" s="3">
         <v>2460</v>
       </c>
+      <c r="H3" s="6"/>
       <c r="I3" s="3">
         <v>0.89700000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>332</v>
+        <v>280</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>377</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>333</v>
+        <v>292</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E4" s="3">
         <v>3500</v>
@@ -3280,19 +3686,21 @@
       <c r="G4" s="3">
         <v>2980</v>
       </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>337</v>
+        <v>262</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>378</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>338</v>
+        <v>294</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>336</v>
+        <v>293</v>
       </c>
       <c r="E5" s="3">
         <v>2400</v>
@@ -3300,22 +3708,24 @@
       <c r="F5" s="3">
         <v>300</v>
       </c>
-      <c r="H5" s="3">
+      <c r="G5" s="6"/>
+      <c r="H5" s="5">
         <v>1E-4</v>
       </c>
+      <c r="I5" s="6"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>339</v>
+        <v>261</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>379</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>345</v>
+        <v>299</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>340</v>
+        <v>295</v>
       </c>
       <c r="E6" s="3">
         <v>2440</v>
@@ -3329,16 +3739,20 @@
       <c r="H6" s="3">
         <v>45.8</v>
       </c>
+      <c r="I6" s="6"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>341</v>
+        <v>296</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>380</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>344</v>
+        <v>298</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>346</v>
+        <v>300</v>
       </c>
       <c r="E7" s="3">
         <v>3000</v>
@@ -3352,19 +3766,20 @@
       <c r="H7" s="3">
         <v>0.67</v>
       </c>
+      <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>342</v>
+        <v>202</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>297</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>343</v>
+        <v>181</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E8" s="3">
         <v>19320</v>
@@ -3375,6 +3790,7 @@
       <c r="G8" s="3">
         <v>2856</v>
       </c>
+      <c r="H8" s="6"/>
       <c r="I8" s="3">
         <v>0.126</v>
       </c>
@@ -3383,14 +3799,14 @@
       <c r="A9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>84</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>105</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="E9" s="3">
         <v>2250</v>
@@ -3401,23 +3817,25 @@
       <c r="G9" s="3">
         <v>4827</v>
       </c>
+      <c r="H9" s="6"/>
       <c r="I9" s="3">
         <v>0.71</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>347</v>
+        <v>195</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>301</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>308</v>
+        <v>273</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>182</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="E10" s="6"/>
       <c r="F10" s="3">
         <v>-183.3</v>
       </c>
@@ -3431,493 +3849,532 @@
         <v>1.5109999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="B11" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="3">
+        <v>-169.4</v>
+      </c>
+      <c r="G11" s="3">
+        <v>-103.9</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="I11" s="3">
+        <v>1.548</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="28" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E12" s="3">
+        <v>789</v>
+      </c>
+      <c r="F12" s="3">
+        <v>-114</v>
+      </c>
+      <c r="G12" s="3">
+        <v>78</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="I12" s="3">
+        <v>2.44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E13" s="3">
+        <v>3350</v>
+      </c>
+      <c r="F13" s="3">
+        <v>2572</v>
+      </c>
+      <c r="G13" s="3">
+        <v>2850</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="1:9" ht="28" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="E11" s="3">
-        <v>789</v>
-      </c>
-      <c r="F11" s="3">
-        <v>-114</v>
-      </c>
-      <c r="G11" s="3">
-        <v>78</v>
-      </c>
-      <c r="H11" s="3" t="s">
+      <c r="D14" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="I11" s="3">
-        <v>2.44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="E12" s="3">
-        <v>3350</v>
-      </c>
-      <c r="F12" s="3">
-        <v>2572</v>
-      </c>
-      <c r="G12" s="3">
-        <v>2850</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="28" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="H13" s="3">
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="3">
         <v>16.600000000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="E14" s="3">
-        <v>2240</v>
-      </c>
-      <c r="F14" s="3">
-        <v>580</v>
-      </c>
-      <c r="G14" s="3">
-        <v>2850</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0.17299999999999999</v>
-      </c>
+      <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>356</v>
+        <v>250</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>384</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>357</v>
+        <v>305</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>358</v>
+        <v>306</v>
       </c>
       <c r="E15" s="3">
-        <v>3140</v>
+        <v>2240</v>
       </c>
       <c r="F15" s="3">
-        <v>1391</v>
+        <v>580</v>
+      </c>
+      <c r="G15" s="3">
+        <v>2850</v>
       </c>
       <c r="H15" s="3">
-        <v>2</v>
-      </c>
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="I15" s="6"/>
     </row>
     <row r="16" spans="1:9" ht="28" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>359</v>
+        <v>252</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>307</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>397</v>
+        <v>308</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>360</v>
+        <v>309</v>
       </c>
       <c r="E16" s="3">
+        <v>3140</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1391</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="3">
+        <v>2</v>
+      </c>
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="1:9" ht="28" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="E17" s="3">
         <v>2200</v>
       </c>
-      <c r="H16" s="3">
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="3">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="E17" s="3">
-        <v>1086</v>
-      </c>
-      <c r="F17" s="3">
-        <v>782</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1600</v>
-      </c>
-      <c r="H17" s="3">
-        <v>74.5</v>
-      </c>
+      <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>365</v>
+        <v>246</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>386</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>361</v>
+        <v>312</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>366</v>
+        <v>313</v>
       </c>
       <c r="E18" s="3">
-        <v>2930</v>
+        <v>1086</v>
       </c>
       <c r="F18" s="3">
-        <v>1339</v>
+        <v>782</v>
+      </c>
+      <c r="G18" s="3">
+        <v>1600</v>
       </c>
       <c r="H18" s="3">
-        <v>6.17</v>
-      </c>
-      <c r="I18" s="3">
-        <v>0.87863999999999998</v>
-      </c>
+        <v>74.5</v>
+      </c>
+      <c r="I18" s="6"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>367</v>
+        <v>266</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>387</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>368</v>
+        <v>311</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>369</v>
+        <v>314</v>
       </c>
       <c r="E19" s="3">
+        <v>2930</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1339</v>
+      </c>
+      <c r="G19" s="6"/>
+      <c r="H19" s="3">
+        <v>6.17</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0.87863999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="E20" s="3">
         <v>3180</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F20" s="3">
         <v>1423</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G20" s="3">
         <v>2500</v>
       </c>
-      <c r="H19" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="28" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="E20" s="3">
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+    </row>
+    <row r="21" spans="1:9" ht="28" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="E21" s="3">
         <v>2360</v>
       </c>
-      <c r="H20" s="3">
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="3">
         <v>4.3029999999999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-184</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-128.1</v>
-      </c>
-      <c r="I21" s="3">
-        <v>0.65910000000000002</v>
-      </c>
+      <c r="I21" s="6"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>309</v>
+        <v>196</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>182</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="E22" s="6"/>
       <c r="F22" s="3">
-        <v>-183.3</v>
+        <v>-184</v>
       </c>
       <c r="G22" s="3">
-        <v>-88.6</v>
-      </c>
-      <c r="H22" s="3">
-        <v>6.1999999999999998E-3</v>
-      </c>
+        <v>-128.1</v>
+      </c>
+      <c r="H22" s="6"/>
       <c r="I22" s="3">
-        <v>1.7290000000000001</v>
+        <v>0.65910000000000002</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>92</v>
+        <v>271</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>390</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>108</v>
+        <v>272</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>215</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="E23" s="6"/>
       <c r="F23" s="3">
-        <v>-182.5</v>
+        <v>-183.3</v>
       </c>
       <c r="G23" s="3">
-        <v>-161.5</v>
+        <v>-88.6</v>
       </c>
       <c r="H23" s="3">
-        <v>2.3E-3</v>
+        <v>6.1999999999999998E-3</v>
       </c>
       <c r="I23" s="3">
-        <v>2.1560000000000001</v>
+        <v>1.7290000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>89</v>
+        <v>49</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>215</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="E24" s="6"/>
       <c r="F24" s="3">
-        <v>-101</v>
+        <v>-182.5</v>
       </c>
       <c r="G24" s="3">
-        <v>-34</v>
+        <v>-161.5</v>
       </c>
       <c r="H24" s="3">
-        <v>0.72899999999999998</v>
+        <v>2.3E-3</v>
       </c>
       <c r="I24" s="3">
-        <v>0.52</v>
+        <v>2.1560000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>254</v>
+        <v>45</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>215</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="E25" s="6"/>
       <c r="F25" s="3">
-        <v>-205.1</v>
+        <v>-101</v>
       </c>
       <c r="G25" s="3">
-        <v>-191.4</v>
+        <v>-34</v>
       </c>
       <c r="H25" s="3">
-        <v>2.8E-3</v>
+        <v>0.72899999999999998</v>
       </c>
       <c r="I25" s="3">
-        <v>1.042</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>177</v>
+        <v>96</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>391</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>215</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="E26" s="6"/>
       <c r="F26" s="3">
-        <v>-78.45</v>
+        <v>-205.1</v>
       </c>
       <c r="G26" s="3">
-        <v>-56.55</v>
+        <v>-191.4</v>
       </c>
       <c r="H26" s="3">
-        <v>0.16900000000000001</v>
+        <v>2.8E-3</v>
       </c>
       <c r="I26" s="3">
-        <v>0.83899999999999997</v>
+        <v>1.042</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>375</v>
+        <v>54</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>176</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>376</v>
+        <v>106</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="E27" s="3">
-        <v>8960</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="E27" s="6"/>
       <c r="F27" s="3">
-        <v>1083.4000000000001</v>
+        <v>-78.45</v>
       </c>
       <c r="G27" s="3">
-        <v>2562</v>
+        <v>-56.55</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0.16900000000000001</v>
       </c>
       <c r="I27" s="3">
-        <v>0.38600000000000001</v>
+        <v>0.83899999999999997</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>377</v>
+        <v>198</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>392</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>378</v>
+        <v>418</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E28" s="3">
-        <v>6500</v>
+        <v>8960</v>
       </c>
       <c r="F28" s="3">
-        <v>1326</v>
+        <v>1083.4000000000001</v>
+      </c>
+      <c r="G28" s="3">
+        <v>2562</v>
+      </c>
+      <c r="H28" s="6"/>
+      <c r="I28" s="3">
+        <v>0.38600000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>195</v>
+        <v>284</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>393</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>302</v>
+        <v>321</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>194</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="E29" s="3">
+        <v>6500</v>
+      </c>
+      <c r="F29" s="3">
+        <v>1326</v>
+      </c>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="4" t="s">
         <v>81</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>98</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>215</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="E30" s="6"/>
       <c r="F30" s="3">
         <v>-219.62</v>
       </c>
       <c r="G30" s="3">
         <v>-188.1</v>
       </c>
+      <c r="H30" s="6"/>
       <c r="I30" s="3">
         <v>0.82389999999999997</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>379</v>
+        <v>197</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>394</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>380</v>
+        <v>419</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E31" s="3">
         <v>7800</v>
@@ -3928,22 +4385,23 @@
       <c r="G31" s="3">
         <v>2750</v>
       </c>
+      <c r="H31" s="6"/>
       <c r="I31" s="3">
         <v>0.44400000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>381</v>
+        <v>282</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>395</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>382</v>
+        <v>322</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E32" s="3">
         <v>5340</v>
@@ -3954,19 +4412,21 @@
       <c r="G32" s="3">
         <v>3414</v>
       </c>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>383</v>
+        <v>283</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>396</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>384</v>
+        <v>323</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E33" s="3">
         <v>5180</v>
@@ -3974,27 +4434,31 @@
       <c r="F33" s="3">
         <v>1595</v>
       </c>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="4" t="s">
         <v>87</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>94</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>215</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="E34" s="6"/>
       <c r="F34" s="3">
         <v>-259.2</v>
       </c>
       <c r="G34" s="3">
         <v>-252.77</v>
       </c>
-      <c r="H34" s="3">
+      <c r="H34" s="5">
         <v>1.6000000000000001E-4</v>
       </c>
       <c r="I34" s="3">
@@ -4005,14 +4469,14 @@
       <c r="A35" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="4" t="s">
         <v>88</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>97</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="E35" s="3">
         <v>1000</v>
@@ -4024,7 +4488,7 @@
         <v>100</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>304</v>
+        <v>269</v>
       </c>
       <c r="I35" s="3">
         <v>4.1859999999999999</v>
@@ -4032,17 +4496,18 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>385</v>
+        <v>193</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>397</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>386</v>
+        <v>324</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>387</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="E36" s="6"/>
       <c r="F36" s="3">
         <v>-85.5</v>
       </c>
@@ -4058,17 +4523,18 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>388</v>
+        <v>278</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>398</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>389</v>
+        <v>326</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>390</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="E37" s="6"/>
       <c r="F37" s="3">
         <v>-114.2</v>
       </c>
@@ -4086,14 +4552,14 @@
       <c r="A38" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>181</v>
+      <c r="B38" s="4" t="s">
+        <v>180</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>113</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="E38" s="3">
         <v>697</v>
@@ -4105,281 +4571,363 @@
         <v>26</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+      <c r="I38" s="6"/>
+    </row>
+    <row r="39" spans="1:9" ht="28" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>391</v>
+        <v>371</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>399</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>302</v>
+        <v>373</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>182</v>
+        <v>374</v>
+      </c>
+      <c r="E39" s="3">
+        <v>1874</v>
       </c>
       <c r="F39" s="3">
-        <v>-222.52</v>
+        <v>46</v>
       </c>
       <c r="G39" s="3">
-        <v>-219.52</v>
-      </c>
-      <c r="H39" s="3">
-        <v>0.6</v>
+        <v>261</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>372</v>
       </c>
       <c r="I39" s="3">
-        <v>5.2275000000000009</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>392</v>
+        <v>267</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>328</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>302</v>
+        <v>268</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="E40" s="3">
-        <v>1359</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="E40" s="6"/>
       <c r="F40" s="3">
-        <v>-39</v>
+        <v>-222.52</v>
       </c>
       <c r="G40" s="3">
-        <v>356.7</v>
+        <v>-219.52</v>
+      </c>
+      <c r="H40" s="3">
+        <v>0.6</v>
       </c>
       <c r="I40" s="3">
-        <v>0.14000000000000001</v>
+        <v>5.2275000000000009</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>393</v>
+        <v>200</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>329</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>302</v>
+        <v>268</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E41" s="3">
+        <v>1359</v>
+      </c>
+      <c r="F41" s="3">
+        <v>-39</v>
+      </c>
+      <c r="G41" s="3">
+        <v>356.7</v>
+      </c>
+      <c r="H41" s="6"/>
+      <c r="I41" s="3">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E42" s="3">
         <v>862</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F42" s="3">
         <v>63</v>
       </c>
-      <c r="G41" s="3">
+      <c r="G42" s="3">
         <v>770</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" ht="28" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="H42" s="3">
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+    </row>
+    <row r="43" spans="1:9" ht="28" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="3">
         <v>36.4</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="E43" s="3">
-        <v>2430</v>
-      </c>
-      <c r="F43" s="3">
-        <v>891</v>
-      </c>
-      <c r="G43" s="3">
-        <v>3336</v>
-      </c>
-      <c r="H43" s="3">
-        <v>111</v>
-      </c>
+      <c r="I43" s="6"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>275</v>
+        <v>253</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>400</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>302</v>
+        <v>335</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>182</v>
+        <v>336</v>
+      </c>
+      <c r="E44" s="3">
+        <v>2430</v>
+      </c>
+      <c r="F44" s="3">
+        <v>891</v>
+      </c>
+      <c r="G44" s="3">
+        <v>3336</v>
       </c>
       <c r="H44" s="3">
+        <v>111</v>
+      </c>
+      <c r="I44" s="6"/>
+    </row>
+    <row r="45" spans="1:9" ht="28" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="E45" s="3">
+        <v>2440</v>
+      </c>
+      <c r="F45" s="3">
+        <v>340</v>
+      </c>
+      <c r="G45" s="6"/>
+      <c r="H45" s="3">
         <v>150</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="H45" s="3">
+      <c r="I45" s="6"/>
+    </row>
+    <row r="46" spans="1:9" ht="28" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="E46" s="3">
+        <v>2564</v>
+      </c>
+      <c r="F46" s="3">
+        <v>1380</v>
+      </c>
+      <c r="G46" s="6"/>
+      <c r="H46" s="3">
         <v>92.3</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="H46" s="3">
-        <v>34.200000000000003</v>
-      </c>
+      <c r="I46" s="6"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>271</v>
+        <v>53</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>178</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>302</v>
+        <v>111</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>182</v>
+        <v>212</v>
+      </c>
+      <c r="E47" s="3">
+        <v>1984</v>
+      </c>
+      <c r="F47" s="3">
+        <v>770</v>
+      </c>
+      <c r="G47" s="3">
+        <v>1420</v>
       </c>
       <c r="H47" s="3">
-        <v>7.3</v>
+        <v>34.200000000000003</v>
+      </c>
+      <c r="I47" s="3">
+        <v>1.6819999999999999</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>273</v>
+        <v>254</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>341</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>302</v>
+        <v>342</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>182</v>
+        <v>343</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2320</v>
+      </c>
+      <c r="F48" s="3">
+        <v>356</v>
+      </c>
+      <c r="G48" s="3">
+        <v>400</v>
       </c>
       <c r="H48" s="3">
+        <v>7.3</v>
+      </c>
+      <c r="I48" s="6"/>
+    </row>
+    <row r="49" spans="1:9" ht="28" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="E49" s="3">
+        <v>2170</v>
+      </c>
+      <c r="F49" s="3">
+        <v>292</v>
+      </c>
+      <c r="G49" s="6"/>
+      <c r="H49" s="3">
         <v>33.700000000000003</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="H49" s="3">
-        <v>112</v>
-      </c>
+      <c r="I49" s="6"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>235</v>
+        <v>257</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>404</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>236</v>
+        <v>345</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>182</v>
+        <v>346</v>
+      </c>
+      <c r="E50" s="3">
+        <v>2044</v>
       </c>
       <c r="F50" s="3">
-        <v>180</v>
+        <v>380</v>
       </c>
       <c r="G50" s="3">
-        <v>1340</v>
-      </c>
-      <c r="I50" s="3">
-        <v>3.5819999999999999</v>
-      </c>
+        <v>1324</v>
+      </c>
+      <c r="H50" s="3">
+        <v>112</v>
+      </c>
+      <c r="I50" s="6"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>290</v>
+        <v>225</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>405</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>302</v>
+        <v>181</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="H51" s="3">
-        <v>8</v>
+        <v>181</v>
+      </c>
+      <c r="E51" s="3">
+        <v>534</v>
+      </c>
+      <c r="F51" s="3">
+        <v>180</v>
+      </c>
+      <c r="G51" s="3">
+        <v>1340</v>
+      </c>
+      <c r="H51" s="6"/>
+      <c r="I51" s="3">
+        <v>3.5819999999999999</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>284</v>
+        <v>260</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>406</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>302</v>
+        <v>347</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>182</v>
+        <v>348</v>
       </c>
       <c r="E52" s="3">
         <v>2110</v>
@@ -4387,591 +4935,739 @@
       <c r="F52" s="3">
         <v>723</v>
       </c>
+      <c r="G52" s="6"/>
       <c r="H52" s="3">
         <v>1.33</v>
       </c>
+      <c r="I52" s="6"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>292</v>
+        <v>349</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>350</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>302</v>
+        <v>181</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="H53" s="3">
-        <v>3.8210000000000002</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="E53" s="3">
+        <v>1740</v>
+      </c>
+      <c r="F53" s="3">
+        <v>648</v>
+      </c>
+      <c r="G53" s="3">
+        <v>1107</v>
+      </c>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>282</v>
+        <v>279</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>407</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>302</v>
+        <v>351</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
+      </c>
+      <c r="E54" s="3">
+        <v>3580</v>
+      </c>
+      <c r="F54" s="3">
+        <v>2800</v>
+      </c>
+      <c r="G54" s="3">
+        <v>3600</v>
       </c>
       <c r="H54" s="3">
-        <v>40.799999999999997</v>
-      </c>
+        <v>8.6E-3</v>
+      </c>
+      <c r="I54" s="6"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>286</v>
+        <v>41</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>302</v>
+        <v>100</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>182</v>
+        <v>209</v>
+      </c>
+      <c r="E55" s="6"/>
+      <c r="F55" s="3">
+        <v>-211.4</v>
+      </c>
+      <c r="G55" s="3">
+        <v>-195.8</v>
       </c>
       <c r="H55" s="3">
-        <v>83.5</v>
+        <v>1.9E-3</v>
+      </c>
+      <c r="I55" s="3">
+        <v>1.042</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>288</v>
+        <v>245</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>408</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>302</v>
+        <v>352</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
+      </c>
+      <c r="E56" s="6"/>
+      <c r="F56" s="3">
+        <v>-90.8</v>
+      </c>
+      <c r="G56" s="3">
+        <v>-88.46</v>
       </c>
       <c r="H56" s="3">
-        <v>12.8</v>
+        <v>0.112</v>
+      </c>
+      <c r="I56" s="3">
+        <v>0.878</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>318</v>
+        <v>286</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>181</v>
       </c>
       <c r="E57" s="3">
-        <v>3580</v>
+        <v>968</v>
       </c>
       <c r="F57" s="3">
-        <v>2800</v>
+        <v>97.7</v>
       </c>
       <c r="G57" s="3">
-        <v>3600</v>
-      </c>
+        <v>883</v>
+      </c>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>90</v>
+        <v>357</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>354</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>100</v>
+        <v>355</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>215</v>
+        <v>356</v>
+      </c>
+      <c r="E58" s="3">
+        <v>2532</v>
       </c>
       <c r="F58" s="3">
-        <v>-211.4</v>
+        <v>851</v>
       </c>
       <c r="G58" s="3">
-        <v>-195.8</v>
+        <v>1600</v>
       </c>
       <c r="H58" s="3">
-        <v>1.9E-3</v>
-      </c>
-      <c r="I58" s="3">
-        <v>1.042</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="I58" s="6"/>
+    </row>
+    <row r="59" spans="1:9" ht="28" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>261</v>
+        <v>358</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>359</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>302</v>
+        <v>361</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>182</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="E59" s="3">
+        <v>2159</v>
+      </c>
+      <c r="F59" s="3">
+        <v>270</v>
+      </c>
+      <c r="G59" s="6"/>
       <c r="H59" s="3">
-        <v>0.112</v>
-      </c>
+        <v>7.8</v>
+      </c>
+      <c r="I59" s="6"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>325</v>
+        <v>52</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2165</v>
       </c>
       <c r="F60" s="3">
-        <v>97.7</v>
+        <v>801</v>
+      </c>
+      <c r="G60" s="3">
+        <v>1465</v>
+      </c>
+      <c r="H60" s="3">
+        <v>35.9</v>
+      </c>
+      <c r="I60" s="3">
+        <v>4.03</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="E61" s="3">
-        <v>2532</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="E61" s="6"/>
       <c r="F61" s="3">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+        <v>-77.7</v>
+      </c>
+      <c r="G61" s="3">
+        <v>-33.5</v>
+      </c>
+      <c r="H61" s="3">
+        <v>52.9</v>
+      </c>
+      <c r="I61" s="3">
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="28" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>178</v>
+        <v>425</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>423</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>110</v>
+        <v>427</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>217</v>
+        <v>424</v>
+      </c>
+      <c r="E62" s="7">
+        <v>910</v>
+      </c>
+      <c r="F62" s="3">
+        <v>-77</v>
+      </c>
+      <c r="G62" s="3">
+        <v>36</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="I62" s="3">
+        <v>4.3</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>91</v>
+        <v>263</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>409</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>104</v>
+        <v>363</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>215</v>
+        <v>364</v>
+      </c>
+      <c r="E63" s="3">
+        <v>1527</v>
       </c>
       <c r="F63" s="3">
-        <v>-77.7</v>
+        <v>340</v>
       </c>
       <c r="G63" s="3">
-        <v>-33.5</v>
+        <v>520</v>
       </c>
       <c r="H63" s="3">
-        <v>52.9</v>
-      </c>
-      <c r="I63" s="3">
-        <v>2.0499999999999998</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="I63" s="6"/>
+    </row>
+    <row r="64" spans="1:9" ht="28" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>212</v>
+        <v>265</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>410</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>210</v>
+        <v>365</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+      <c r="E64" s="3">
+        <v>1803</v>
+      </c>
+      <c r="F64" s="3">
+        <v>180</v>
+      </c>
+      <c r="G64" s="6"/>
+      <c r="H64" s="3">
+        <v>37.4</v>
+      </c>
+      <c r="I64" s="3">
+        <v>1.6930000000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="28" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>257</v>
+        <v>169</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>411</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>302</v>
+        <v>172</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>182</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="E65" s="3">
+        <v>1580</v>
+      </c>
+      <c r="F65" s="3">
+        <v>105</v>
+      </c>
+      <c r="G65" s="6"/>
       <c r="H65" s="3">
-        <v>37.200000000000003</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+        <v>21.7</v>
+      </c>
+      <c r="I65" s="6"/>
+    </row>
+    <row r="66" spans="1:9" ht="28" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>258</v>
+        <v>264</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>367</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>182</v>
+        <v>289</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F66" s="3">
+        <v>58</v>
+      </c>
+      <c r="G66" s="3">
+        <v>251</v>
       </c>
       <c r="H66" s="3">
-        <v>37.4</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="I66" s="6"/>
     </row>
     <row r="67" spans="1:9" ht="28" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>170</v>
+        <v>244</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>412</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>173</v>
+        <v>369</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>221</v>
+        <v>370</v>
+      </c>
+      <c r="E67" s="3">
+        <v>1803</v>
+      </c>
+      <c r="F67" s="3">
+        <v>155</v>
+      </c>
+      <c r="G67" s="3">
+        <v>158</v>
       </c>
       <c r="H67" s="3">
-        <v>21.7</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="28" x14ac:dyDescent="0.25">
+        <v>26.1</v>
+      </c>
+      <c r="I67" s="3">
+        <v>1.417</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>256</v>
+        <v>56</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>175</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>327</v>
+        <v>103</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="E68" s="3">
-        <v>2200</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="E68" s="6"/>
       <c r="F68" s="3">
-        <v>58</v>
+        <v>-163.6</v>
       </c>
       <c r="G68" s="3">
-        <v>251</v>
+        <v>-151.80000000000001</v>
       </c>
       <c r="H68" s="3">
-        <v>100</v>
+        <v>5.6</v>
+      </c>
+      <c r="I68" s="3">
+        <v>0.97399999999999998</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>328</v>
+        <v>55</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>174</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>302</v>
+        <v>102</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>182</v>
+        <v>209</v>
+      </c>
+      <c r="E69" s="3">
+        <v>1450</v>
+      </c>
+      <c r="F69" s="3">
+        <v>-11</v>
+      </c>
+      <c r="G69" s="3">
+        <v>21</v>
       </c>
       <c r="H69" s="3">
-        <v>68.900000000000006</v>
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="I69" s="3">
+        <v>0.83150000000000002</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>259</v>
+        <v>42</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>302</v>
+        <v>83</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>182</v>
+        <v>209</v>
+      </c>
+      <c r="E70" s="6"/>
+      <c r="F70" s="3">
+        <v>-218.4</v>
+      </c>
+      <c r="G70" s="3">
+        <v>-183</v>
       </c>
       <c r="H70" s="3">
-        <v>26.1</v>
+        <v>4.3E-3</v>
+      </c>
+      <c r="I70" s="3">
+        <v>0.91800000000000004</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>176</v>
+        <v>43</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>86</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>215</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="E71" s="6"/>
       <c r="F71" s="3">
-        <v>-163.6</v>
-      </c>
-      <c r="G71" s="3" t="s">
-        <v>315</v>
+        <v>-192</v>
+      </c>
+      <c r="G71" s="3">
+        <v>-111</v>
       </c>
       <c r="H71" s="3">
-        <v>5.6</v>
+        <v>4.4999999999999997E-3</v>
       </c>
       <c r="I71" s="3">
-        <v>0.97399999999999998</v>
+        <v>14.05</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>175</v>
+        <v>167</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>413</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>102</v>
+        <v>170</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="E72" s="3">
-        <v>1450</v>
+        <v>2940</v>
       </c>
       <c r="F72" s="3">
-        <v>-11</v>
+        <v>340</v>
       </c>
       <c r="G72" s="3">
-        <v>21</v>
-      </c>
-      <c r="H72" s="3">
-        <v>9.7000000000000003E-2</v>
-      </c>
-      <c r="I72" s="3">
-        <v>0.83150000000000002</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="H72" s="6"/>
+      <c r="I72" s="6"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>85</v>
+        <v>44</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>215</v>
+        <v>209</v>
+      </c>
+      <c r="E73" s="3">
+        <v>1820</v>
       </c>
       <c r="F73" s="3">
-        <v>-218.4</v>
+        <v>44.2</v>
       </c>
       <c r="G73" s="3">
-        <v>-183</v>
-      </c>
-      <c r="H73" s="3">
-        <v>4.3E-3</v>
-      </c>
+        <v>280.5</v>
+      </c>
+      <c r="H73" s="6"/>
       <c r="I73" s="3">
-        <v>0.91800000000000004</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>86</v>
+        <v>203</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>414</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>101</v>
+        <v>268</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>215</v>
+        <v>181</v>
+      </c>
+      <c r="E74" s="3">
+        <v>11344</v>
       </c>
       <c r="F74" s="3">
-        <v>-192</v>
+        <v>327.5</v>
       </c>
       <c r="G74" s="3">
-        <v>-111</v>
-      </c>
-      <c r="H74" s="3">
-        <v>4.4999999999999997E-3</v>
-      </c>
+        <v>1749</v>
+      </c>
+      <c r="H74" s="6"/>
       <c r="I74" s="3">
-        <v>14.05</v>
+        <v>0.128</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>168</v>
+        <v>201</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>375</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>171</v>
+        <v>268</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>215</v>
+        <v>181</v>
       </c>
       <c r="E75" s="3">
-        <v>2940</v>
+        <v>21550</v>
       </c>
       <c r="F75" s="3">
-        <v>340</v>
+        <v>1768</v>
       </c>
       <c r="G75" s="3">
-        <v>360</v>
+        <v>3825</v>
+      </c>
+      <c r="H75" s="6"/>
+      <c r="I75" s="3">
+        <v>0.13500000000000001</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>93</v>
+        <v>162</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>415</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>109</v>
+        <v>163</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
+      </c>
+      <c r="E76" s="3">
+        <v>2360</v>
       </c>
       <c r="F76" s="3">
-        <v>44.2</v>
+        <v>112.8</v>
+      </c>
+      <c r="G76" s="3">
+        <v>444.6</v>
+      </c>
+      <c r="H76" s="6"/>
+      <c r="I76" s="3">
+        <v>0.7527600000000001</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>206</v>
+        <v>287</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>416</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>302</v>
+        <v>376</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>182</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="E77" s="3">
+        <v>2328</v>
+      </c>
+      <c r="F77" s="3">
+        <v>1420</v>
+      </c>
+      <c r="G77" s="3">
+        <v>2900</v>
+      </c>
+      <c r="H77" s="6"/>
       <c r="I77" s="3">
-        <v>0.128</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>204</v>
+        <v>58</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>179</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>302</v>
+        <v>112</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>182</v>
+        <v>209</v>
+      </c>
+      <c r="E78" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F78" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G78" s="3">
+        <v>2230</v>
+      </c>
+      <c r="H78" s="3">
+        <v>0</v>
       </c>
       <c r="I78" s="3">
-        <v>0.13500000000000001</v>
+        <v>0.83640000000000014</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>162</v>
+        <v>168</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>417</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>219</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="E79" s="6"/>
       <c r="F79" s="3">
-        <v>112.8</v>
+        <v>-75.5</v>
+      </c>
+      <c r="G79" s="3">
+        <v>-10</v>
+      </c>
+      <c r="H79" s="3">
+        <v>11.28</v>
       </c>
       <c r="I79" s="3">
-        <v>0.7527600000000001</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="F80" s="3">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="E81" s="3">
-        <v>2200</v>
-      </c>
-      <c r="F81" s="3">
-        <v>1600</v>
-      </c>
-      <c r="G81" s="3">
-        <v>2230</v>
-      </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
-      <c r="I81" s="3">
-        <v>0.83640000000000014</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="H82" s="3">
-        <v>11.28</v>
-      </c>
-      <c r="I82" s="3">
         <v>0.62</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0.377</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H84" s="3">
-        <v>1.49E-2</v>
       </c>
     </row>
   </sheetData>
@@ -4985,8 +5681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -5005,27 +5701,27 @@
         <v>95</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C1" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="D1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="F1" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="G1" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B2" s="2">
         <v>4.1499999999999999E-11</v>
@@ -5036,22 +5732,22 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B6" s="2">
         <v>4.1999999999999999E-12</v>
@@ -5062,60 +5758,60 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>313</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="B16" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="E17">
         <v>595</v>

--- a/Science.xlsx
+++ b/Science.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="periodic_table" sheetId="3" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="chemical_equation" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">chemical_bond!$A$1:$B$105</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">chemical_bond!$A$1:$B$107</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">molecule!$A$1:$I$79</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="454">
   <si>
     <t>C=O</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -904,10 +904,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Pb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Hg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1017,10 +1013,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>density</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Inf</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1667,6 +1659,17 @@
   <si>
     <t>N-P</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ca-Cl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cl=O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>standard density</t>
   </si>
 </sst>
 </file>
@@ -1715,7 +1718,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1729,9 +1732,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -2039,10 +2039,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2669,7 +2669,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B45">
         <v>80</v>
@@ -2683,29 +2683,15 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B46">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C46">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="D46">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>243</v>
-      </c>
-      <c r="B47">
-        <v>92</v>
-      </c>
-      <c r="C47">
-        <v>146</v>
-      </c>
-      <c r="D47">
         <v>6</v>
       </c>
     </row>
@@ -2718,10 +2704,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B105"/>
+  <dimension ref="A1:B107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2742,29 +2728,29 @@
       <c r="A2" t="s">
         <v>205</v>
       </c>
-      <c r="B2" s="8"/>
+      <c r="B2" s="7"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>429</v>
-      </c>
-      <c r="B3" s="8"/>
+        <v>427</v>
+      </c>
+      <c r="B3" s="7"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>430</v>
-      </c>
-      <c r="B4" s="8"/>
+        <v>428</v>
+      </c>
+      <c r="B4" s="7"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>431</v>
-      </c>
-      <c r="B5" s="8"/>
+        <v>429</v>
+      </c>
+      <c r="B5" s="7"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B6">
         <v>511</v>
@@ -2772,7 +2758,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B7">
         <v>293</v>
@@ -2780,7 +2766,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B8">
         <v>456</v>
@@ -2876,678 +2862,689 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>432</v>
-      </c>
-      <c r="B20" s="8"/>
+        <v>430</v>
+      </c>
+      <c r="B20" s="7"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>434</v>
-      </c>
-      <c r="B21" s="8"/>
+        <v>432</v>
+      </c>
+      <c r="B21" s="7"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>433</v>
-      </c>
-      <c r="B22" s="8"/>
+        <v>451</v>
+      </c>
+      <c r="B22" s="7"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>129</v>
-      </c>
-      <c r="B23">
-        <v>393</v>
-      </c>
+        <v>431</v>
+      </c>
+      <c r="B23" s="7"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="B24">
-        <v>284</v>
+        <v>393</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>6</v>
+        <v>116</v>
       </c>
       <c r="B25">
-        <v>368</v>
+        <v>284</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>115</v>
+        <v>6</v>
       </c>
       <c r="B26">
-        <v>339</v>
+        <v>368</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B27">
-        <v>452</v>
+        <v>339</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>8</v>
+        <v>114</v>
       </c>
       <c r="B28">
-        <v>431</v>
+        <v>452</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>117</v>
+        <v>8</v>
       </c>
       <c r="B29">
-        <v>232</v>
+        <v>431</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>2</v>
+        <v>117</v>
       </c>
       <c r="B30">
-        <v>242.58</v>
+        <v>232</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B31">
-        <v>431.8</v>
+        <v>242.58</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>125</v>
+        <v>5</v>
       </c>
       <c r="B32">
-        <v>272</v>
+        <v>431.8</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>118</v>
-      </c>
-      <c r="B33">
-        <v>331</v>
+        <v>452</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>125</v>
       </c>
       <c r="B34">
-        <v>335</v>
+        <v>272</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="B35">
-        <v>305</v>
+        <v>331</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>131</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>272</v>
+        <v>335</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B37">
-        <v>347</v>
+        <v>305</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>435</v>
+        <v>131</v>
       </c>
       <c r="B38">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>1</v>
+        <v>136</v>
       </c>
       <c r="B39">
-        <v>156.9</v>
+        <v>347</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>4</v>
+        <v>433</v>
       </c>
       <c r="B40">
-        <v>568.6</v>
+        <v>269</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>442</v>
+        <v>1</v>
       </c>
       <c r="B41">
-        <v>190</v>
+        <v>156.9</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>436</v>
-      </c>
-      <c r="B42" s="8"/>
+        <v>4</v>
+      </c>
+      <c r="B42">
+        <v>568.6</v>
+      </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>16</v>
+        <v>440</v>
       </c>
       <c r="B43">
-        <v>436</v>
+        <v>190</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>35</v>
-      </c>
-      <c r="B44">
-        <v>498.7</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="B44" s="7"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>124</v>
+        <v>16</v>
       </c>
       <c r="B45">
-        <v>298.7</v>
+        <v>436</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>122</v>
+        <v>35</v>
       </c>
       <c r="B46">
-        <v>151</v>
+        <v>498.7</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="B47">
-        <v>380</v>
+        <v>298.7</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>17</v>
+        <v>122</v>
       </c>
       <c r="B48">
-        <v>433</v>
+        <v>151</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>18</v>
+        <v>137</v>
       </c>
       <c r="B49">
-        <v>498</v>
+        <v>380</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>138</v>
+        <v>17</v>
       </c>
       <c r="B50">
-        <v>325</v>
+        <v>433</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>437</v>
-      </c>
-      <c r="B51" s="8"/>
+        <v>18</v>
+      </c>
+      <c r="B51">
+        <v>498</v>
+      </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B52">
-        <v>469</v>
+        <v>325</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>140</v>
-      </c>
-      <c r="B53">
-        <v>238</v>
-      </c>
+        <v>435</v>
+      </c>
+      <c r="B53" s="7"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B54">
-        <v>345</v>
+        <v>469</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>226</v>
+        <v>140</v>
       </c>
       <c r="B55">
-        <v>513.29999999999995</v>
+        <v>238</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>438</v>
-      </c>
-      <c r="B56" s="8"/>
+        <v>141</v>
+      </c>
+      <c r="B56">
+        <v>345</v>
+      </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>439</v>
-      </c>
-      <c r="B57" s="8"/>
+        <v>226</v>
+      </c>
+      <c r="B57">
+        <v>513.29999999999995</v>
+      </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>426</v>
-      </c>
-      <c r="B58">
-        <v>29</v>
-      </c>
+        <v>436</v>
+      </c>
+      <c r="B58" s="7"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>26</v>
-      </c>
-      <c r="B59">
-        <v>418</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="B59" s="7"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>28</v>
+        <v>424</v>
       </c>
       <c r="B60">
-        <v>607</v>
+        <v>29</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B61">
-        <v>946</v>
+        <v>418</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>132</v>
+        <v>28</v>
       </c>
       <c r="B62">
-        <v>367</v>
+        <v>607</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="B63">
-        <v>412</v>
+        <v>946</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>11</v>
+        <v>132</v>
       </c>
       <c r="B64">
-        <v>519</v>
+        <v>367</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B65">
-        <v>186</v>
+        <v>412</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>133</v>
+        <v>11</v>
       </c>
       <c r="B66">
-        <v>304</v>
+        <v>519</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>440</v>
-      </c>
-      <c r="B67" s="8"/>
+        <v>12</v>
+      </c>
+      <c r="B67">
+        <v>186</v>
+      </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>9</v>
+        <v>133</v>
       </c>
       <c r="B68">
-        <v>431</v>
+        <v>304</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>206</v>
-      </c>
-      <c r="B69">
-        <v>8</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="B69" s="7"/>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="B70">
-        <v>193</v>
+        <v>431</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>27</v>
+        <v>206</v>
       </c>
       <c r="B71">
-        <v>176</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>452</v>
+        <v>38</v>
       </c>
       <c r="B72">
-        <v>177</v>
+        <v>193</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>441</v>
+        <v>27</v>
       </c>
       <c r="B73">
-        <v>313</v>
+        <v>176</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="B74">
-        <v>283</v>
+        <v>177</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>3</v>
+        <v>439</v>
       </c>
       <c r="B75">
-        <v>498</v>
+        <v>313</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>13</v>
+        <v>443</v>
       </c>
       <c r="B76">
-        <v>146</v>
+        <v>283</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="B77">
-        <v>560</v>
+        <v>498</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>143</v>
+        <v>13</v>
       </c>
       <c r="B78">
-        <v>382</v>
+        <v>146</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="B79">
-        <v>272</v>
+        <v>560</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B80">
-        <v>346</v>
+        <v>382</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>32</v>
+        <v>134</v>
       </c>
       <c r="B81">
-        <v>319</v>
+        <v>272</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>31</v>
+        <v>144</v>
       </c>
       <c r="B82">
-        <v>490</v>
+        <v>346</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B83">
-        <v>328</v>
+        <v>319</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B84">
-        <v>410</v>
+        <v>490</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B85">
-        <v>209</v>
+        <v>328</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>446</v>
+        <v>15</v>
       </c>
       <c r="B86">
-        <v>335</v>
+        <v>410</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>145</v>
+        <v>14</v>
       </c>
       <c r="B87">
-        <v>428</v>
+        <v>209</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>146</v>
+        <v>444</v>
       </c>
       <c r="B88">
-        <v>494</v>
+        <v>335</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B89">
-        <v>319</v>
+        <v>428</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B90">
-        <v>522</v>
+        <v>494</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B91">
-        <v>425</v>
+        <v>319</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B92">
-        <v>314</v>
+        <v>522</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>19</v>
+        <v>150</v>
       </c>
       <c r="B93">
-        <v>339</v>
+        <v>425</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>21</v>
+        <v>151</v>
       </c>
       <c r="B94">
-        <v>360</v>
+        <v>314</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B95">
-        <v>552</v>
+        <v>339</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B96">
-        <v>377</v>
+        <v>360</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B97">
-        <v>460</v>
+        <v>552</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>451</v>
+        <v>23</v>
       </c>
       <c r="B98">
-        <v>227</v>
+        <v>377</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>447</v>
+        <v>24</v>
       </c>
       <c r="B99">
-        <v>355</v>
+        <v>460</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B100">
-        <v>293</v>
+        <v>227</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>25</v>
+        <v>445</v>
       </c>
       <c r="B101">
-        <v>222</v>
+        <v>355</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B102">
-        <v>284</v>
+        <v>293</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>444</v>
+        <v>25</v>
       </c>
       <c r="B103">
-        <v>255</v>
+        <v>222</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>148</v>
+        <v>441</v>
       </c>
       <c r="B104">
-        <v>364</v>
+        <v>284</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
+        <v>442</v>
+      </c>
+      <c r="B105">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>148</v>
+      </c>
+      <c r="B106">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
         <v>20</v>
       </c>
-      <c r="B105">
+      <c r="B107">
         <v>268</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B105">
+  <autoFilter ref="A1:B107">
     <sortState ref="A2:B88">
       <sortCondition ref="A1"/>
     </sortState>
@@ -3563,8 +3560,8 @@
   <dimension ref="A1:I79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C62" sqref="C62"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3592,10 +3589,10 @@
         <v>80</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>275</v>
+        <v>453</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>191</v>
@@ -3615,7 +3612,7 @@
         <v>199</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>181</v>
@@ -3642,7 +3639,7 @@
         <v>73</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>181</v>
@@ -3666,13 +3663,13 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>181</v>
@@ -3691,16 +3688,16 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E5" s="3">
         <v>2400</v>
@@ -3716,16 +3713,16 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E6" s="3">
         <v>2440</v>
@@ -3743,16 +3740,16 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>298</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>300</v>
       </c>
       <c r="E7" s="3">
         <v>3000</v>
@@ -3773,7 +3770,7 @@
         <v>202</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>181</v>
@@ -3827,15 +3824,17 @@
         <v>195</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="E10" s="6"/>
+      <c r="E10" s="3">
+        <v>1.1747000000000001</v>
+      </c>
       <c r="F10" s="3">
         <v>-183.3</v>
       </c>
@@ -3851,18 +3850,20 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>420</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>422</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="E11" s="6"/>
+      <c r="E11" s="3">
+        <v>1.256</v>
+      </c>
       <c r="F11" s="3">
         <v>-169.4</v>
       </c>
@@ -3881,10 +3882,10 @@
         <v>194</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>181</v>
@@ -3899,7 +3900,7 @@
         <v>78</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I12" s="3">
         <v>2.44</v>
@@ -3907,13 +3908,13 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>181</v>
@@ -3932,18 +3933,20 @@
     </row>
     <row r="14" spans="1:9" ht="28" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="E14" s="6"/>
+        <v>302</v>
+      </c>
+      <c r="E14" s="3">
+        <v>2169</v>
+      </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="3">
@@ -3953,16 +3956,16 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E15" s="3">
         <v>2240</v>
@@ -3980,16 +3983,16 @@
     </row>
     <row r="16" spans="1:9" ht="28" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>307</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>309</v>
       </c>
       <c r="E16" s="3">
         <v>3140</v>
@@ -4005,16 +4008,16 @@
     </row>
     <row r="17" spans="1:9" ht="28" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E17" s="3">
         <v>2200</v>
@@ -4028,16 +4031,16 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E18" s="3">
         <v>1086</v>
@@ -4055,16 +4058,16 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E19" s="3">
         <v>2930</v>
@@ -4082,16 +4085,16 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>315</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>317</v>
       </c>
       <c r="E20" s="3">
         <v>3180</v>
@@ -4107,16 +4110,16 @@
     </row>
     <row r="21" spans="1:9" ht="28" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E21" s="3">
         <v>2360</v>
@@ -4133,15 +4136,17 @@
         <v>196</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="E22" s="6"/>
+      <c r="E22" s="3">
+        <v>1.603</v>
+      </c>
       <c r="F22" s="3">
         <v>-184</v>
       </c>
@@ -4155,18 +4160,20 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>271</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>272</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="E23" s="6"/>
+      <c r="E23" s="3">
+        <v>1.2450000000000001</v>
+      </c>
       <c r="F23" s="3">
         <v>-183.3</v>
       </c>
@@ -4193,7 +4200,9 @@
       <c r="D24" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="E24" s="6"/>
+      <c r="E24" s="3">
+        <v>0.71599999999999997</v>
+      </c>
       <c r="F24" s="3">
         <v>-182.5</v>
       </c>
@@ -4220,7 +4229,9 @@
       <c r="D25" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="E25" s="6"/>
+      <c r="E25" s="3">
+        <v>3.21</v>
+      </c>
       <c r="F25" s="3">
         <v>-101</v>
       </c>
@@ -4239,7 +4250,7 @@
         <v>96</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>107</v>
@@ -4247,7 +4258,9 @@
       <c r="D26" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="E26" s="6"/>
+      <c r="E26" s="3">
+        <v>1.25</v>
+      </c>
       <c r="F26" s="3">
         <v>-205.1</v>
       </c>
@@ -4274,7 +4287,9 @@
       <c r="D27" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="E27" s="6"/>
+      <c r="E27" s="3">
+        <v>1.9770000000000001</v>
+      </c>
       <c r="F27" s="3">
         <v>-78.45</v>
       </c>
@@ -4293,10 +4308,10 @@
         <v>198</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>181</v>
@@ -4317,13 +4332,13 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>181</v>
@@ -4351,7 +4366,9 @@
       <c r="D30" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="E30" s="6"/>
+      <c r="E30" s="3">
+        <v>1.554</v>
+      </c>
       <c r="F30" s="3">
         <v>-219.62</v>
       </c>
@@ -4368,10 +4385,10 @@
         <v>197</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>181</v>
@@ -4392,13 +4409,13 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>181</v>
@@ -4417,13 +4434,13 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>181</v>
@@ -4451,7 +4468,9 @@
       <c r="D34" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="E34" s="6"/>
+      <c r="E34" s="3">
+        <v>8.9899999999999994E-2</v>
+      </c>
       <c r="F34" s="3">
         <v>-259.2</v>
       </c>
@@ -4488,7 +4507,7 @@
         <v>100</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I35" s="3">
         <v>4.1859999999999999</v>
@@ -4499,15 +4518,17 @@
         <v>193</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="E36" s="6"/>
+        <v>323</v>
+      </c>
+      <c r="E36" s="3">
+        <v>1.1890000000000001</v>
+      </c>
       <c r="F36" s="3">
         <v>-85.5</v>
       </c>
@@ -4523,18 +4544,20 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="E37" s="6"/>
+        <v>325</v>
+      </c>
+      <c r="E37" s="3">
+        <v>1.4770000000000001</v>
+      </c>
       <c r="F37" s="3">
         <v>-114.2</v>
       </c>
@@ -4571,22 +4594,22 @@
         <v>26</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I38" s="6"/>
     </row>
     <row r="39" spans="1:9" ht="28" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>373</v>
-      </c>
       <c r="D39" s="4" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E39" s="3">
         <v>1874</v>
@@ -4598,7 +4621,7 @@
         <v>261</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I39" s="3">
         <v>2.5</v>
@@ -4606,18 +4629,20 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>267</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>268</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="E40" s="6"/>
+      <c r="E40" s="3">
+        <v>0.17849999999999999</v>
+      </c>
       <c r="F40" s="3">
         <v>-222.52</v>
       </c>
@@ -4636,10 +4661,10 @@
         <v>200</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>181</v>
@@ -4660,13 +4685,13 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>181</v>
@@ -4685,18 +4710,20 @@
     </row>
     <row r="43" spans="1:9" ht="28" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B43" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="C43" s="4" t="s">
-        <v>333</v>
-      </c>
       <c r="D43" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="E43" s="6"/>
+        <v>330</v>
+      </c>
+      <c r="E43" s="3">
+        <v>2170</v>
+      </c>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
       <c r="H43" s="3">
@@ -4706,16 +4733,16 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E44" s="3">
         <v>2430</v>
@@ -4733,16 +4760,16 @@
     </row>
     <row r="45" spans="1:9" ht="28" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E45" s="3">
         <v>2440</v>
@@ -4758,16 +4785,16 @@
     </row>
     <row r="46" spans="1:9" ht="28" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E46" s="3">
         <v>2564</v>
@@ -4812,16 +4839,16 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B48" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="D48" s="4" t="s">
         <v>341</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>343</v>
       </c>
       <c r="E48" s="3">
         <v>2320</v>
@@ -4839,16 +4866,16 @@
     </row>
     <row r="49" spans="1:9" ht="28" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E49" s="3">
         <v>2170</v>
@@ -4864,16 +4891,16 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E50" s="3">
         <v>2044</v>
@@ -4894,7 +4921,7 @@
         <v>225</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>181</v>
@@ -4918,16 +4945,16 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E52" s="3">
         <v>2110</v>
@@ -4943,10 +4970,10 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>181</v>
@@ -4968,13 +4995,13 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>181</v>
@@ -5006,7 +5033,9 @@
       <c r="D55" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="E55" s="6"/>
+      <c r="E55" s="3">
+        <v>1.25</v>
+      </c>
       <c r="F55" s="3">
         <v>-211.4</v>
       </c>
@@ -5022,18 +5051,20 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="E56" s="6"/>
+      <c r="E56" s="3">
+        <v>1.22</v>
+      </c>
       <c r="F56" s="3">
         <v>-90.8</v>
       </c>
@@ -5049,10 +5080,10 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>181</v>
@@ -5074,16 +5105,16 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B58" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="D58" s="4" t="s">
         <v>354</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>356</v>
       </c>
       <c r="E58" s="3">
         <v>2532</v>
@@ -5101,16 +5132,16 @@
     </row>
     <row r="59" spans="1:9" ht="28" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B59" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="C59" s="4" t="s">
-        <v>361</v>
-      </c>
       <c r="D59" s="4" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E59" s="3">
         <v>2159</v>
@@ -5166,7 +5197,9 @@
       <c r="D61" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="E61" s="6"/>
+      <c r="E61" s="3">
+        <v>0.77100000000000002</v>
+      </c>
       <c r="F61" s="3">
         <v>-77.7</v>
       </c>
@@ -5182,18 +5215,18 @@
     </row>
     <row r="62" spans="1:9" ht="28" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>425</v>
       </c>
-      <c r="B62" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>427</v>
-      </c>
       <c r="D62" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="E62" s="7">
+        <v>422</v>
+      </c>
+      <c r="E62" s="3">
         <v>910</v>
       </c>
       <c r="F62" s="3">
@@ -5203,7 +5236,7 @@
         <v>36</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I62" s="3">
         <v>4.3</v>
@@ -5211,16 +5244,16 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E63" s="3">
         <v>1527</v>
@@ -5238,16 +5271,16 @@
     </row>
     <row r="64" spans="1:9" ht="28" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E64" s="3">
         <v>1803</v>
@@ -5268,13 +5301,13 @@
         <v>169</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>172</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E65" s="3">
         <v>1580</v>
@@ -5290,16 +5323,16 @@
     </row>
     <row r="66" spans="1:9" ht="28" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E66" s="3">
         <v>2200</v>
@@ -5317,16 +5350,16 @@
     </row>
     <row r="67" spans="1:9" ht="28" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E67" s="3">
         <v>1803</v>
@@ -5357,7 +5390,9 @@
       <c r="D68" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="E68" s="6"/>
+      <c r="E68" s="3">
+        <v>1.27</v>
+      </c>
       <c r="F68" s="3">
         <v>-163.6</v>
       </c>
@@ -5413,7 +5448,9 @@
       <c r="D70" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="E70" s="6"/>
+      <c r="E70" s="3">
+        <v>1.4289000000000001</v>
+      </c>
       <c r="F70" s="3">
         <v>-218.4</v>
       </c>
@@ -5440,7 +5477,9 @@
       <c r="D71" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="E71" s="6"/>
+      <c r="E71" s="3">
+        <v>2.14</v>
+      </c>
       <c r="F71" s="3">
         <v>-192</v>
       </c>
@@ -5459,7 +5498,7 @@
         <v>167</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>170</v>
@@ -5511,10 +5550,10 @@
         <v>203</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>181</v>
@@ -5538,10 +5577,10 @@
         <v>201</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>181</v>
@@ -5565,7 +5604,7 @@
         <v>162</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>163</v>
@@ -5589,13 +5628,13 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>181</v>
@@ -5648,7 +5687,7 @@
         <v>168</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>171</v>
@@ -5656,7 +5695,9 @@
       <c r="D79" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="E79" s="6"/>
+      <c r="E79" s="3">
+        <v>2.9275000000000002</v>
+      </c>
       <c r="F79" s="3">
         <v>-75.5</v>
       </c>
@@ -5788,7 +5829,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">

--- a/Science.xlsx
+++ b/Science.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="periodic_table" sheetId="3" r:id="rId1"/>
@@ -164,14 +164,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>C3C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N3N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>N-N</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -366,10 +358,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{'N3N':1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{'O=O':2}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -418,10 +406,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{'C3N':1,'C-H':1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>C-F</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -446,10 +430,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>C3N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Br-Br</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1005,10 +985,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{'C-H':2,'C3C':1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ionization</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1305,10 +1281,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{'N3N':1,'N-O':1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Sodium</t>
   </si>
   <si>
@@ -1670,6 +1642,27 @@
   </si>
   <si>
     <t>standard density</t>
+  </si>
+  <si>
+    <t>CΞC</t>
+  </si>
+  <si>
+    <t>CΞN</t>
+  </si>
+  <si>
+    <t>NΞN</t>
+  </si>
+  <si>
+    <t>{'CΞN':1,'C-H':1}</t>
+  </si>
+  <si>
+    <t>{'NΞN':1}</t>
+  </si>
+  <si>
+    <t>{'NΞN':1,'N-O':1}</t>
+  </si>
+  <si>
+    <t>{'C-H':2,'CΞC':1}</t>
   </si>
 </sst>
 </file>
@@ -2041,8 +2034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2053,21 +2046,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" t="s">
         <v>60</v>
       </c>
-      <c r="B1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1" t="s">
-        <v>62</v>
-      </c>
       <c r="D1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2081,7 +2074,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -2095,7 +2088,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -2109,7 +2102,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -2123,7 +2116,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -2137,7 +2130,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -2151,7 +2144,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -2165,7 +2158,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -2179,7 +2172,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -2193,7 +2186,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -2207,7 +2200,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -2221,7 +2214,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -2235,7 +2228,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -2249,7 +2242,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -2263,7 +2256,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -2277,7 +2270,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -2291,7 +2284,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -2305,7 +2298,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -2319,7 +2312,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -2333,7 +2326,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -2347,7 +2340,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -2361,7 +2354,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -2375,7 +2368,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -2389,7 +2382,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -2403,7 +2396,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B26">
         <v>25</v>
@@ -2417,7 +2410,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B27">
         <v>26</v>
@@ -2431,7 +2424,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B28">
         <v>27</v>
@@ -2445,7 +2438,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B29">
         <v>28</v>
@@ -2459,7 +2452,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B30">
         <v>29</v>
@@ -2473,7 +2466,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B31">
         <v>30</v>
@@ -2487,7 +2480,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B32">
         <v>31</v>
@@ -2501,7 +2494,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B33">
         <v>32</v>
@@ -2515,7 +2508,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B34">
         <v>33</v>
@@ -2529,7 +2522,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B35">
         <v>34</v>
@@ -2543,7 +2536,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B36">
         <v>35</v>
@@ -2557,7 +2550,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B37">
         <v>36</v>
@@ -2571,7 +2564,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B38">
         <v>37</v>
@@ -2585,7 +2578,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B39">
         <v>47</v>
@@ -2599,7 +2592,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B40">
         <v>54</v>
@@ -2613,7 +2606,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B41">
         <v>53</v>
@@ -2627,7 +2620,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B42">
         <v>82</v>
@@ -2641,7 +2634,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B43">
         <v>78</v>
@@ -2655,7 +2648,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B44">
         <v>79</v>
@@ -2669,7 +2662,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B45">
         <v>80</v>
@@ -2683,7 +2676,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B46">
         <v>92</v>
@@ -2706,8 +2699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B107"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2718,39 +2711,39 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B2" s="7"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="B3" s="7"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="B4" s="7"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="B5" s="7"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="B6">
         <v>511</v>
@@ -2758,7 +2751,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="B7">
         <v>293</v>
@@ -2766,7 +2759,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="B8">
         <v>456</v>
@@ -2774,7 +2767,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B9">
         <v>644</v>
@@ -2782,7 +2775,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B10">
         <v>515</v>
@@ -2790,7 +2783,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B11">
         <v>193.87</v>
@@ -2798,7 +2791,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B12">
         <v>365.7</v>
@@ -2806,7 +2799,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B13">
         <v>235</v>
@@ -2822,7 +2815,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B15">
         <v>644</v>
@@ -2838,7 +2831,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B17">
         <v>577</v>
@@ -2846,206 +2839,206 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18">
-        <v>812</v>
-      </c>
+        <v>423</v>
+      </c>
+      <c r="B18" s="7"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>120</v>
-      </c>
-      <c r="B19">
-        <v>937</v>
-      </c>
+        <v>444</v>
+      </c>
+      <c r="B19" s="7"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="B20" s="7"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="B21" s="7"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>451</v>
-      </c>
-      <c r="B22" s="7"/>
+        <v>124</v>
+      </c>
+      <c r="B22">
+        <v>393</v>
+      </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>431</v>
-      </c>
-      <c r="B23" s="7"/>
+        <v>112</v>
+      </c>
+      <c r="B23">
+        <v>284</v>
+      </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>129</v>
+        <v>6</v>
       </c>
       <c r="B24">
-        <v>393</v>
+        <v>368</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B25">
-        <v>284</v>
+        <v>339</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>110</v>
       </c>
       <c r="B26">
-        <v>368</v>
+        <v>452</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>115</v>
+        <v>8</v>
       </c>
       <c r="B27">
-        <v>339</v>
+        <v>431</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B28">
-        <v>452</v>
+        <v>232</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29">
-        <v>431</v>
+        <v>445</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>117</v>
+        <v>2</v>
       </c>
       <c r="B30">
-        <v>232</v>
+        <v>242.58</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B31">
-        <v>242.58</v>
+        <v>431.8</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>5</v>
+        <v>120</v>
       </c>
       <c r="B32">
-        <v>431.8</v>
+        <v>272</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>452</v>
+        <v>114</v>
+      </c>
+      <c r="B33">
+        <v>331</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>125</v>
+        <v>34</v>
       </c>
       <c r="B34">
-        <v>272</v>
+        <v>335</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B35">
-        <v>331</v>
+        <v>305</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="B36">
-        <v>335</v>
+        <v>272</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B37">
-        <v>305</v>
+        <v>347</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>131</v>
+        <v>426</v>
       </c>
       <c r="B38">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>136</v>
+        <v>447</v>
       </c>
       <c r="B39">
-        <v>347</v>
+        <v>812</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>433</v>
+        <v>448</v>
       </c>
       <c r="B40">
-        <v>269</v>
+        <v>937</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>1</v>
-      </c>
-      <c r="B41">
-        <v>156.9</v>
-      </c>
+        <v>427</v>
+      </c>
+      <c r="B41" s="7"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B42">
-        <v>568.6</v>
+        <v>156.9</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>440</v>
+        <v>4</v>
       </c>
       <c r="B43">
-        <v>190</v>
+        <v>568.6</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>434</v>
-      </c>
-      <c r="B44" s="7"/>
+        <v>433</v>
+      </c>
+      <c r="B44">
+        <v>190</v>
+      </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -3065,7 +3058,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B47">
         <v>298.7</v>
@@ -3073,7 +3066,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B48">
         <v>151</v>
@@ -3081,7 +3074,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B49">
         <v>380</v>
@@ -3105,7 +3098,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B52">
         <v>325</v>
@@ -3113,13 +3106,13 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="B53" s="7"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B54">
         <v>469</v>
@@ -3127,7 +3120,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B55">
         <v>238</v>
@@ -3135,7 +3128,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B56">
         <v>345</v>
@@ -3143,7 +3136,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B57">
         <v>513.29999999999995</v>
@@ -3151,19 +3144,19 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="B58" s="7"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="B59" s="7"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="B60">
         <v>29</v>
@@ -3187,112 +3180,112 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>37</v>
+        <v>127</v>
       </c>
       <c r="B63">
-        <v>946</v>
+        <v>367</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>132</v>
+        <v>10</v>
       </c>
       <c r="B64">
-        <v>367</v>
+        <v>412</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B65">
-        <v>412</v>
+        <v>519</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B66">
-        <v>519</v>
+        <v>186</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="B67">
-        <v>186</v>
+        <v>304</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>133</v>
-      </c>
-      <c r="B68">
-        <v>304</v>
-      </c>
+        <v>431</v>
+      </c>
+      <c r="B68" s="7"/>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>438</v>
-      </c>
-      <c r="B69" s="7"/>
+        <v>432</v>
+      </c>
+      <c r="B69">
+        <v>313</v>
+      </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>9</v>
+        <v>436</v>
       </c>
       <c r="B70">
-        <v>431</v>
+        <v>283</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>206</v>
+        <v>9</v>
       </c>
       <c r="B71">
-        <v>8</v>
+        <v>431</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>38</v>
+        <v>201</v>
       </c>
       <c r="B72">
-        <v>193</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B73">
-        <v>176</v>
+        <v>193</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>450</v>
+        <v>27</v>
       </c>
       <c r="B74">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="B75">
-        <v>313</v>
+        <v>177</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="B76">
-        <v>283</v>
+        <v>946</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -3321,79 +3314,79 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>143</v>
+        <v>437</v>
       </c>
       <c r="B80">
-        <v>382</v>
+        <v>335</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B81">
-        <v>272</v>
+        <v>382</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="B82">
-        <v>346</v>
+        <v>272</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>32</v>
+        <v>139</v>
       </c>
       <c r="B83">
-        <v>319</v>
+        <v>346</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B84">
-        <v>490</v>
+        <v>319</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B85">
-        <v>328</v>
+        <v>490</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B86">
-        <v>410</v>
+        <v>328</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B87">
-        <v>209</v>
+        <v>410</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>444</v>
+        <v>14</v>
       </c>
       <c r="B88">
-        <v>335</v>
+        <v>209</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B89">
         <v>428</v>
@@ -3401,7 +3394,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B90">
         <v>494</v>
@@ -3409,7 +3402,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B91">
         <v>319</v>
@@ -3417,7 +3410,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B92">
         <v>522</v>
@@ -3425,7 +3418,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B93">
         <v>425</v>
@@ -3433,63 +3426,63 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>151</v>
+        <v>435</v>
       </c>
       <c r="B94">
-        <v>314</v>
+        <v>255</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>19</v>
+        <v>146</v>
       </c>
       <c r="B95">
-        <v>339</v>
+        <v>314</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>21</v>
+        <v>434</v>
       </c>
       <c r="B96">
-        <v>360</v>
+        <v>284</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B97">
-        <v>552</v>
+        <v>339</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B98">
-        <v>377</v>
+        <v>360</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B99">
-        <v>460</v>
+        <v>552</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>449</v>
+        <v>23</v>
       </c>
       <c r="B100">
-        <v>227</v>
+        <v>377</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="B101">
         <v>355</v>
@@ -3497,39 +3490,39 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>446</v>
+        <v>24</v>
       </c>
       <c r="B102">
-        <v>293</v>
+        <v>460</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>25</v>
+        <v>442</v>
       </c>
       <c r="B103">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B104">
-        <v>284</v>
+        <v>293</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>442</v>
+        <v>25</v>
       </c>
       <c r="B105">
-        <v>255</v>
+        <v>222</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B106">
         <v>364</v>
@@ -3544,11 +3537,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B107">
-    <sortState ref="A2:B88">
-      <sortCondition ref="A1"/>
-    </sortState>
-  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3560,8 +3548,8 @@
   <dimension ref="A1:I79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3580,45 +3568,45 @@
   <sheetData>
     <row r="1" spans="1:9" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E2" s="3">
         <v>10490</v>
@@ -3636,16 +3624,16 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E3" s="3">
         <v>2700</v>
@@ -3663,16 +3651,16 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E4" s="3">
         <v>3500</v>
@@ -3688,16 +3676,16 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="E5" s="3">
         <v>2400</v>
@@ -3713,16 +3701,16 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="E6" s="3">
         <v>2440</v>
@@ -3740,16 +3728,16 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="E7" s="3">
         <v>3000</v>
@@ -3767,16 +3755,16 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E8" s="3">
         <v>19320</v>
@@ -3797,13 +3785,13 @@
         <v>33</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E9" s="3">
         <v>2250</v>
@@ -3821,16 +3809,16 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>272</v>
+        <v>453</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E10" s="3">
         <v>1.1747000000000001</v>
@@ -3850,16 +3838,16 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E11" s="3">
         <v>1.256</v>
@@ -3879,16 +3867,16 @@
     </row>
     <row r="12" spans="1:9" ht="28" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E12" s="3">
         <v>789</v>
@@ -3900,7 +3888,7 @@
         <v>78</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="I12" s="3">
         <v>2.44</v>
@@ -3908,16 +3896,16 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E13" s="3">
         <v>3350</v>
@@ -3933,16 +3921,16 @@
     </row>
     <row r="14" spans="1:9" ht="28" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="E14" s="3">
         <v>2169</v>
@@ -3956,16 +3944,16 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="E15" s="3">
         <v>2240</v>
@@ -3983,16 +3971,16 @@
     </row>
     <row r="16" spans="1:9" ht="28" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="E16" s="3">
         <v>3140</v>
@@ -4008,16 +3996,16 @@
     </row>
     <row r="17" spans="1:9" ht="28" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="E17" s="3">
         <v>2200</v>
@@ -4031,16 +4019,16 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="E18" s="3">
         <v>1086</v>
@@ -4058,16 +4046,16 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="E19" s="3">
         <v>2930</v>
@@ -4085,16 +4073,16 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="E20" s="3">
         <v>3180</v>
@@ -4110,16 +4098,16 @@
     </row>
     <row r="21" spans="1:9" ht="28" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E21" s="3">
         <v>2360</v>
@@ -4133,16 +4121,16 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E22" s="3">
         <v>1.603</v>
@@ -4160,16 +4148,16 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E23" s="3">
         <v>1.2450000000000001</v>
@@ -4189,16 +4177,16 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E24" s="3">
         <v>0.71599999999999997</v>
@@ -4218,16 +4206,16 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E25" s="3">
         <v>3.21</v>
@@ -4247,16 +4235,16 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E26" s="3">
         <v>1.25</v>
@@ -4276,16 +4264,16 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E27" s="3">
         <v>1.9770000000000001</v>
@@ -4305,16 +4293,16 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E28" s="3">
         <v>8960</v>
@@ -4332,16 +4320,16 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E29" s="3">
         <v>6500</v>
@@ -4355,16 +4343,16 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E30" s="3">
         <v>1.554</v>
@@ -4382,16 +4370,16 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E31" s="3">
         <v>7800</v>
@@ -4409,16 +4397,16 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E32" s="3">
         <v>5340</v>
@@ -4434,16 +4422,16 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E33" s="3">
         <v>5180</v>
@@ -4457,16 +4445,16 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E34" s="3">
         <v>8.9899999999999994E-2</v>
@@ -4486,16 +4474,16 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="E35" s="3">
         <v>1000</v>
@@ -4507,7 +4495,7 @@
         <v>100</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="I35" s="3">
         <v>4.1859999999999999</v>
@@ -4515,16 +4503,16 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="E36" s="3">
         <v>1.1890000000000001</v>
@@ -4544,16 +4532,16 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="E37" s="3">
         <v>1.4770000000000001</v>
@@ -4573,16 +4561,16 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>113</v>
+        <v>450</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E38" s="3">
         <v>697</v>
@@ -4594,22 +4582,22 @@
         <v>26</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="I38" s="6"/>
     </row>
     <row r="39" spans="1:9" ht="28" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="E39" s="3">
         <v>1874</v>
@@ -4621,7 +4609,7 @@
         <v>261</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="I39" s="3">
         <v>2.5</v>
@@ -4629,16 +4617,16 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E40" s="3">
         <v>0.17849999999999999</v>
@@ -4658,16 +4646,16 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E41" s="3">
         <v>1359</v>
@@ -4685,16 +4673,16 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E42" s="3">
         <v>862</v>
@@ -4710,16 +4698,16 @@
     </row>
     <row r="43" spans="1:9" ht="28" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="E43" s="3">
         <v>2170</v>
@@ -4733,16 +4721,16 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="E44" s="3">
         <v>2430</v>
@@ -4760,16 +4748,16 @@
     </row>
     <row r="45" spans="1:9" ht="28" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="E45" s="3">
         <v>2440</v>
@@ -4785,16 +4773,16 @@
     </row>
     <row r="46" spans="1:9" ht="28" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="E46" s="3">
         <v>2564</v>
@@ -4810,16 +4798,16 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="E47" s="3">
         <v>1984</v>
@@ -4839,16 +4827,16 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="E48" s="3">
         <v>2320</v>
@@ -4866,16 +4854,16 @@
     </row>
     <row r="49" spans="1:9" ht="28" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="E49" s="3">
         <v>2170</v>
@@ -4891,16 +4879,16 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="E50" s="3">
         <v>2044</v>
@@ -4918,16 +4906,16 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E51" s="3">
         <v>534</v>
@@ -4945,16 +4933,16 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="E52" s="3">
         <v>2110</v>
@@ -4970,16 +4958,16 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E53" s="3">
         <v>1740</v>
@@ -4995,16 +4983,16 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E54" s="3">
         <v>3580</v>
@@ -5022,16 +5010,16 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>100</v>
+        <v>451</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E55" s="3">
         <v>1.25</v>
@@ -5051,16 +5039,16 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>350</v>
+        <v>452</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E56" s="3">
         <v>1.22</v>
@@ -5080,16 +5068,16 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E57" s="3">
         <v>968</v>
@@ -5105,16 +5093,16 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="E58" s="3">
         <v>2532</v>
@@ -5132,16 +5120,16 @@
     </row>
     <row r="59" spans="1:9" ht="28" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="E59" s="3">
         <v>2159</v>
@@ -5157,16 +5145,16 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="E60" s="3">
         <v>2165</v>
@@ -5186,16 +5174,16 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E61" s="3">
         <v>0.77100000000000002</v>
@@ -5215,16 +5203,16 @@
     </row>
     <row r="62" spans="1:9" ht="28" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="E62" s="3">
         <v>910</v>
@@ -5236,7 +5224,7 @@
         <v>36</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="I62" s="3">
         <v>4.3</v>
@@ -5244,16 +5232,16 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="E63" s="3">
         <v>1527</v>
@@ -5271,16 +5259,16 @@
     </row>
     <row r="64" spans="1:9" ht="28" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="E64" s="3">
         <v>1803</v>
@@ -5298,16 +5286,16 @@
     </row>
     <row r="65" spans="1:9" ht="28" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E65" s="3">
         <v>1580</v>
@@ -5323,16 +5311,16 @@
     </row>
     <row r="66" spans="1:9" ht="28" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="E66" s="3">
         <v>2200</v>
@@ -5350,16 +5338,16 @@
     </row>
     <row r="67" spans="1:9" ht="28" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="E67" s="3">
         <v>1803</v>
@@ -5379,16 +5367,16 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E68" s="3">
         <v>1.27</v>
@@ -5408,16 +5396,16 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E69" s="3">
         <v>1450</v>
@@ -5437,16 +5425,16 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E70" s="3">
         <v>1.4289000000000001</v>
@@ -5466,16 +5454,16 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E71" s="3">
         <v>2.14</v>
@@ -5495,16 +5483,16 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E72" s="3">
         <v>2940</v>
@@ -5520,16 +5508,16 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E73" s="3">
         <v>1820</v>
@@ -5547,16 +5535,16 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E74" s="3">
         <v>11344</v>
@@ -5574,16 +5562,16 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E75" s="3">
         <v>21550</v>
@@ -5601,16 +5589,16 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E76" s="3">
         <v>2360</v>
@@ -5628,16 +5616,16 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E77" s="3">
         <v>2328</v>
@@ -5655,16 +5643,16 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E78" s="3">
         <v>2200</v>
@@ -5684,16 +5672,16 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E79" s="3">
         <v>2.9275000000000002</v>
@@ -5739,30 +5727,30 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E1" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F1" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="G1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B2" s="2">
         <v>4.1499999999999999E-11</v>
@@ -5773,22 +5761,22 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B6" s="2">
         <v>4.1999999999999999E-12</v>
@@ -5799,60 +5787,60 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B16" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="E17">
         <v>595</v>
